--- a/sriramModel-nelson-melancholic-patientID_13-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_13-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.233206724756868</v>
+        <v>1.290762677186771</v>
       </c>
       <c r="C2">
-        <v>1.028635309415763</v>
+        <v>1.066687629551593</v>
       </c>
       <c r="D2">
-        <v>1.298957689780718</v>
+        <v>1.216480979297175</v>
       </c>
       <c r="E2">
-        <v>1.227873497009518</v>
+        <v>1.100197425515673</v>
       </c>
       <c r="F2">
-        <v>1.095660887702739</v>
+        <v>1.083722776143695</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.465383296528868</v>
+        <v>1.581367527883079</v>
       </c>
       <c r="C3">
-        <v>1.057069300875055</v>
+        <v>1.13280825362744</v>
       </c>
       <c r="D3">
-        <v>1.597678185344128</v>
+        <v>1.432782675750538</v>
       </c>
       <c r="E3">
-        <v>1.4545040368665</v>
+        <v>1.200304900764535</v>
       </c>
       <c r="F3">
-        <v>1.191059514925122</v>
+        <v>1.166628336882288</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.696578023141717</v>
+        <v>1.871863847307283</v>
       </c>
       <c r="C4">
-        <v>1.085304697885509</v>
+        <v>1.198374055155321</v>
       </c>
       <c r="D4">
-        <v>1.896173566421921</v>
+        <v>1.648911312684318</v>
       </c>
       <c r="E4">
-        <v>1.679968593483522</v>
+        <v>1.300324248646765</v>
       </c>
       <c r="F4">
-        <v>1.286201733139769</v>
+        <v>1.248729962103403</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.926835731383065</v>
+        <v>2.162280311373843</v>
       </c>
       <c r="C5">
-        <v>1.113344163588113</v>
+        <v>1.263396656865127</v>
       </c>
       <c r="D5">
-        <v>2.194455004358933</v>
+        <v>1.864872731052633</v>
       </c>
       <c r="E5">
-        <v>1.904336870588711</v>
+        <v>1.400257235875693</v>
       </c>
       <c r="F5">
-        <v>1.381093178357294</v>
+        <v>1.330040032812686</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.156198064460067</v>
+        <v>2.452635095735547</v>
       </c>
       <c r="C6">
-        <v>1.141190300073405</v>
+        <v>1.327887136757681</v>
       </c>
       <c r="D6">
-        <v>2.492532819794921</v>
+        <v>2.080672412059457</v>
       </c>
       <c r="E6">
-        <v>2.127672130529411</v>
+        <v>1.500105572767842</v>
       </c>
       <c r="F6">
-        <v>1.475739278218098</v>
+        <v>1.410570088373313</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.384703821215815</v>
+        <v>2.742940412998505</v>
       </c>
       <c r="C7">
-        <v>1.168845651809622</v>
+        <v>1.391856064356131</v>
       </c>
       <c r="D7">
-        <v>2.790416599276571</v>
+        <v>2.296315506047565</v>
       </c>
       <c r="E7">
-        <v>2.35003205561702</v>
+        <v>1.599870917787785</v>
       </c>
       <c r="F7">
-        <v>1.570145263494568</v>
+        <v>1.490330832916302</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.612389205607299</v>
+        <v>3.033204846565617</v>
       </c>
       <c r="C8">
-        <v>1.19631270719445</v>
+        <v>1.455313517783341</v>
       </c>
       <c r="D8">
-        <v>3.088115233829243</v>
+        <v>2.511806853437335</v>
       </c>
       <c r="E8">
-        <v>2.571469372978403</v>
+        <v>1.699554878400825</v>
       </c>
       <c r="F8">
-        <v>1.664316177280573</v>
+        <v>1.569332185937968</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.83928805920717</v>
+        <v>3.323434581782951</v>
       </c>
       <c r="C9">
-        <v>1.223593899911088</v>
+        <v>1.518269103279054</v>
       </c>
       <c r="D9">
-        <v>3.385637001474727</v>
+        <v>2.727150999807617</v>
       </c>
       <c r="E9">
-        <v>2.792032425772796</v>
+        <v>1.799159013492867</v>
       </c>
       <c r="F9">
-        <v>1.758256882820625</v>
+        <v>1.647583325252238</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.065432066565672</v>
+        <v>3.613634291882218</v>
       </c>
       <c r="C10">
-        <v>1.250691610436928</v>
+        <v>1.580731975710066</v>
       </c>
       <c r="D10">
-        <v>3.682989634674742</v>
+        <v>2.942352220641105</v>
       </c>
       <c r="E10">
-        <v>3.011765649947582</v>
+        <v>1.898684835881114</v>
       </c>
       <c r="F10">
-        <v>1.851972071412737</v>
+        <v>1.725092702113517</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.290850919884027</v>
+        <v>3.903807574806221</v>
       </c>
       <c r="C11">
-        <v>1.277608167749561</v>
+        <v>1.642710855966689</v>
       </c>
       <c r="D11">
-        <v>3.980180344436643</v>
+        <v>3.157414535227981</v>
       </c>
       <c r="E11">
-        <v>3.230709952238072</v>
+        <v>1.998133813390977</v>
       </c>
       <c r="F11">
-        <v>1.945466268993947</v>
+        <v>1.801868065837473</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.515572500657024</v>
+        <v>4.193957189539392</v>
       </c>
       <c r="C12">
-        <v>1.304345850842356</v>
+        <v>1.704214046023916</v>
       </c>
       <c r="D12">
-        <v>4.277215868933339</v>
+        <v>3.372341718867533</v>
       </c>
       <c r="E12">
-        <v>3.448903125171402</v>
+        <v>2.097507370558393</v>
       </c>
       <c r="F12">
-        <v>2.038743843393079</v>
+        <v>1.877916481038197</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.739623034244907</v>
+        <v>4.484085277893104</v>
       </c>
       <c r="C13">
-        <v>1.330906890080165</v>
+        <v>1.765249443025291</v>
       </c>
       <c r="D13">
-        <v>4.574102516978477</v>
+        <v>3.587137316460911</v>
       </c>
       <c r="E13">
-        <v>3.666380167621561</v>
+        <v>2.196806890441574</v>
       </c>
       <c r="F13">
-        <v>2.131809011284323</v>
+        <v>1.95324436833103</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.963027211020905</v>
+        <v>4.774193528877575</v>
       </c>
       <c r="C14">
-        <v>1.357293468497107</v>
+        <v>1.825824551462031</v>
       </c>
       <c r="D14">
-        <v>4.870846203818854</v>
+        <v>3.801804654786304</v>
       </c>
       <c r="E14">
-        <v>3.883173527226901</v>
+        <v>2.296033716386332</v>
       </c>
       <c r="F14">
-        <v>2.224665843810933</v>
+        <v>2.027857508587795</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.185808290391256</v>
+        <v>5.064283244702065</v>
       </c>
       <c r="C15">
-        <v>1.383507723060907</v>
+        <v>1.885946495139902</v>
       </c>
       <c r="D15">
-        <v>5.167452484001617</v>
+        <v>4.016346852715049</v>
       </c>
       <c r="E15">
-        <v>4.099313329858949</v>
+        <v>2.395189153282965</v>
       </c>
       <c r="F15">
-        <v>2.317318271577749</v>
+        <v>2.101761052866711</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.407988207392076</v>
+        <v>5.354355562333662</v>
       </c>
       <c r="C16">
-        <v>1.409551746110372</v>
+        <v>1.945622024672126</v>
       </c>
       <c r="D16">
-        <v>5.463926574084192</v>
+        <v>4.230766829692137</v>
       </c>
       <c r="E16">
-        <v>4.314827599174257</v>
+        <v>2.494274468807745</v>
       </c>
       <c r="F16">
-        <v>2.409770089701428</v>
+        <v>2.174959536251494</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.629587670728146</v>
+        <v>5.644411321775775</v>
       </c>
       <c r="C17">
-        <v>1.435427585725543</v>
+        <v>2.004857530335415</v>
       </c>
       <c r="D17">
-        <v>5.760273376799815</v>
+        <v>4.445067313185597</v>
       </c>
       <c r="E17">
-        <v>4.529742459316596</v>
+        <v>2.593290894705544</v>
       </c>
       <c r="F17">
-        <v>2.502024962773645</v>
+        <v>2.247456889754068</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.850626242346668</v>
+        <v>5.934451181854426</v>
       </c>
       <c r="C18">
-        <v>1.461137247577417</v>
+        <v>2.063659049187175</v>
       </c>
       <c r="D18">
-        <v>6.056497502542024</v>
+        <v>4.65925084674217</v>
       </c>
       <c r="E18">
-        <v>4.744082286297137</v>
+        <v>2.69223962815865</v>
       </c>
       <c r="F18">
-        <v>2.594086429066702</v>
+        <v>2.319256447836289</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.071122420120538</v>
+        <v>6.22447560667973</v>
       </c>
       <c r="C19">
-        <v>1.486682695925162</v>
+        <v>2.122032269314909</v>
       </c>
       <c r="D19">
-        <v>6.352603288702266</v>
+        <v>4.873319796429936</v>
       </c>
       <c r="E19">
-        <v>4.957869876155885</v>
+        <v>2.791121832991551</v>
       </c>
       <c r="F19">
-        <v>2.685957905095473</v>
+        <v>2.390360953223382</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.291093707095619</v>
+        <v>6.514484910622487</v>
       </c>
       <c r="C20">
-        <v>1.512065854428295</v>
+        <v>2.179982535242823</v>
       </c>
       <c r="D20">
-        <v>6.648594819862513</v>
+        <v>5.087276355222047</v>
       </c>
       <c r="E20">
-        <v>5.171126565456236</v>
+        <v>2.88993864070332</v>
       </c>
       <c r="F20">
-        <v>2.777642688140936</v>
+        <v>2.460772560000818</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.510556639432013</v>
+        <v>6.80447930255459</v>
       </c>
       <c r="C21">
-        <v>1.537288606859057</v>
+        <v>2.237514853026535</v>
       </c>
       <c r="D21">
-        <v>6.944475944191671</v>
+        <v>5.301122546433679</v>
       </c>
       <c r="E21">
-        <v>5.383872317700614</v>
+        <v>2.988691151429519</v>
       </c>
       <c r="F21">
-        <v>2.86914396188384</v>
+        <v>2.530492834350358</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.729526897979363</v>
+        <v>7.094458882353691</v>
       </c>
       <c r="C22">
-        <v>1.562352797964219</v>
+        <v>2.2946338929712</v>
       </c>
       <c r="D22">
-        <v>7.240250285568021</v>
+        <v>5.514860226828222</v>
       </c>
       <c r="E22">
-        <v>5.596125854447224</v>
+        <v>3.087380434887762</v>
       </c>
       <c r="F22">
-        <v>2.960464796590426</v>
+        <v>2.599522755088661</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.948019268380817</v>
+        <v>7.384423657123053</v>
       </c>
       <c r="C23">
-        <v>1.58726023432366</v>
+        <v>2.351343992040816</v>
       </c>
       <c r="D23">
-        <v>7.535921254876533</v>
+        <v>5.728491088630731</v>
       </c>
       <c r="E23">
-        <v>5.807904738041409</v>
+        <v>3.186007531279293</v>
       </c>
       <c r="F23">
-        <v>3.051608153688801</v>
+        <v>2.667862710399614</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.166047735342866</v>
+        <v>7.674373527247004</v>
       </c>
       <c r="C24">
-        <v>1.612012685025361</v>
+        <v>2.407649153884963</v>
       </c>
       <c r="D24">
-        <v>7.831492060009571</v>
+        <v>5.942016661623748</v>
       </c>
       <c r="E24">
-        <v>6.019225450591694</v>
+        <v>3.284573452104214</v>
       </c>
       <c r="F24">
-        <v>3.142576887285419</v>
+        <v>2.735512492816525</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.383625485705581</v>
+        <v>7.964308290024</v>
       </c>
       <c r="C25">
-        <v>1.636611882287571</v>
+        <v>2.463553048270118</v>
       </c>
       <c r="D25">
-        <v>8.126965713719617</v>
+        <v>6.155438311463338</v>
       </c>
       <c r="E25">
-        <v>6.230103472333082</v>
+        <v>3.383079180882156</v>
       </c>
       <c r="F25">
-        <v>3.233373745443469</v>
+        <v>2.802471293892625</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6.600764930589797</v>
+        <v>8.254227647436613</v>
       </c>
       <c r="C26">
-        <v>1.661059521835031</v>
+        <v>2.519059010845333</v>
       </c>
       <c r="D26">
-        <v>8.422345041353704</v>
+        <v>6.368757242359712</v>
       </c>
       <c r="E26">
-        <v>6.440553357026999</v>
+        <v>3.481525673792707</v>
       </c>
       <c r="F26">
-        <v>3.324001373352738</v>
+        <v>2.868737692334641</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6.817477735640717</v>
+        <v>8.544131204135063</v>
       </c>
       <c r="C27">
-        <v>1.685357263745431</v>
+        <v>2.574170036568694</v>
       </c>
       <c r="D27">
-        <v>8.717632686058671</v>
+        <v>6.581974491230917</v>
       </c>
       <c r="E27">
-        <v>6.650588771113899</v>
+        <v>3.579913860241149</v>
       </c>
       <c r="F27">
-        <v>3.414462313030566</v>
+        <v>2.934309642773294</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7.033774809928297</v>
+        <v>8.834018469862134</v>
       </c>
       <c r="C28">
-        <v>1.709506732133178</v>
+        <v>2.628888776828945</v>
       </c>
       <c r="D28">
-        <v>9.012831112147238</v>
+        <v>6.79509092504622</v>
       </c>
       <c r="E28">
-        <v>6.860222549100119</v>
+        <v>3.67824464333745</v>
       </c>
       <c r="F28">
-        <v>3.504759005062136</v>
+        <v>2.99918446357846</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7.249666298707495</v>
+        <v>9.123888852223661</v>
       </c>
       <c r="C29">
-        <v>1.733509515926287</v>
+        <v>2.683217533995986</v>
       </c>
       <c r="D29">
-        <v>9.307942607132038</v>
+        <v>7.008107239411562</v>
       </c>
       <c r="E29">
-        <v>7.069466744332868</v>
+        <v>3.776518900270029</v>
       </c>
       <c r="F29">
-        <v>3.594893789131908</v>
+        <v>3.063358819692737</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7.465161595250357</v>
+        <v>9.413741648607575</v>
       </c>
       <c r="C30">
-        <v>1.757367168536377</v>
+        <v>2.737158252825477</v>
       </c>
       <c r="D30">
-        <v>9.602969281434735</v>
+        <v>7.221023946889816</v>
       </c>
       <c r="E30">
-        <v>7.27833265547869</v>
+        <v>3.874737482558864</v>
       </c>
       <c r="F30">
-        <v>3.684868902553382</v>
+        <v>3.126828703642243</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.680269270582366</v>
+        <v>9.703576038270464</v>
       </c>
       <c r="C31">
-        <v>1.78108120776284</v>
+        <v>2.790712510649666</v>
       </c>
       <c r="D31">
-        <v>9.897913066354354</v>
+        <v>7.433841374441916</v>
       </c>
       <c r="E31">
-        <v>7.486830863500414</v>
+        <v>3.972901216172884</v>
       </c>
       <c r="F31">
-        <v>3.774686481853566</v>
+        <v>3.189589413788261</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7.894997072946068</v>
+        <v>9.993391071896724</v>
       </c>
       <c r="C32">
-        <v>1.804653115898098</v>
+        <v>2.843881506717489</v>
       </c>
       <c r="D32">
-        <v>10.19277571028037</v>
+        <v>7.646559652155982</v>
       </c>
       <c r="E32">
-        <v>7.694971261500299</v>
+        <v>4.071010901489934</v>
       </c>
       <c r="F32">
-        <v>3.864348559096079</v>
+        <v>3.251635532140387</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8.109351855857344</v>
+        <v>10.28318565930013</v>
       </c>
       <c r="C33">
-        <v>1.828084338822765</v>
+        <v>2.896666049103754</v>
       </c>
       <c r="D33">
-        <v>10.48755877219542</v>
+        <v>7.859178699879363</v>
       </c>
       <c r="E33">
-        <v>7.902763072473344</v>
+        <v>4.169067313067035</v>
       </c>
       <c r="F33">
-        <v>3.953857061579125</v>
+        <v>3.312960894021413</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8.323339491299711</v>
+        <v>10.57295855516388</v>
       </c>
       <c r="C34">
-        <v>1.851376285367657</v>
+        <v>2.949066538204206</v>
       </c>
       <c r="D34">
-        <v>10.78226361271394</v>
+        <v>8.071698219411143</v>
       </c>
       <c r="E34">
-        <v>8.110214861490434</v>
+        <v>4.267071199177868</v>
       </c>
       <c r="F34">
-        <v>4.043213809246708</v>
+        <v>3.373558558217856</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>8.536964829435105</v>
+        <v>10.86270834008373</v>
       </c>
       <c r="C35">
-        <v>1.874530326722672</v>
+        <v>3.001082948600395</v>
       </c>
       <c r="D35">
-        <v>11.07689138228358</v>
+        <v>8.284117671489389</v>
       </c>
       <c r="E35">
-        <v>8.317334548185043</v>
+        <v>4.36502328105895</v>
       </c>
       <c r="F35">
-        <v>4.132420509420337</v>
+        <v>3.433420772930798</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8.750231523902444</v>
+        <v>11.15243340047862</v>
       </c>
       <c r="C36">
-        <v>1.897547794128268</v>
+        <v>3.052714810215152</v>
       </c>
       <c r="D36">
-        <v>11.37144300488985</v>
+        <v>8.496436258714869</v>
       </c>
       <c r="E36">
-        <v>8.524129409947054</v>
+        <v>4.462924251803022</v>
       </c>
       <c r="F36">
-        <v>4.221478755766515</v>
+        <v>3.492538938659231</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>8.963141919392386</v>
+        <v>11.44213190039477</v>
       </c>
       <c r="C37">
-        <v>1.920429977906693</v>
+        <v>3.103961180552472</v>
       </c>
       <c r="D37">
-        <v>11.66591915870297</v>
+        <v>8.708652907175361</v>
       </c>
       <c r="E37">
-        <v>8.73060607160774</v>
+        <v>4.560774774790798</v>
       </c>
       <c r="F37">
-        <v>4.310390019049624</v>
+        <v>3.550903563173734</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.175696905287955</v>
+        <v>11.73180175096685</v>
       </c>
       <c r="C38">
-        <v>1.943178124619697</v>
+        <v>3.154820618481947</v>
       </c>
       <c r="D38">
-        <v>11.96032025152107</v>
+        <v>8.920766228960836</v>
       </c>
       <c r="E38">
-        <v>8.936770494653173</v>
+        <v>4.658575481528294</v>
       </c>
       <c r="F38">
-        <v>4.399155642556222</v>
+        <v>3.608504215525069</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.387895620064736</v>
+        <v>12.02144057321611</v>
       </c>
       <c r="C39">
-        <v>1.965793433290521</v>
+        <v>3.20529115407525</v>
       </c>
       <c r="D39">
-        <v>12.25464639022854</v>
+        <v>9.132774501338908</v>
       </c>
       <c r="E39">
-        <v>9.142627965069416</v>
+        <v>4.756326968717127</v>
       </c>
       <c r="F39">
-        <v>4.487776834178845</v>
+        <v>3.665329476665902</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.599735305816326</v>
+        <v>12.31104565537917</v>
       </c>
       <c r="C40">
-        <v>1.988277053277259</v>
+        <v>3.255370252171016</v>
       </c>
       <c r="D40">
-        <v>12.54889734539949</v>
+        <v>9.34467562242976</v>
       </c>
       <c r="E40">
-        <v>9.348183049218193</v>
+        <v>4.854029794310224</v>
       </c>
       <c r="F40">
-        <v>4.576254651965512</v>
+        <v>3.721366880355516</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>9.811210918995288</v>
+        <v>12.60061389882002</v>
       </c>
       <c r="C41">
-        <v>2.010630077162752</v>
+        <v>3.305054771574798</v>
       </c>
       <c r="D41">
-        <v>12.84307250384031</v>
+        <v>9.556467059910478</v>
       </c>
       <c r="E41">
-        <v>9.553439552900249</v>
+        <v>4.951684472211872</v>
       </c>
       <c r="F41">
-        <v>4.664589998954464</v>
+        <v>3.776602850084757</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10.02231472291499</v>
+        <v>12.89014175249557</v>
       </c>
       <c r="C42">
-        <v>2.032853534880086</v>
+        <v>3.35434091649132</v>
       </c>
       <c r="D42">
-        <v>13.13717081384515</v>
+        <v>9.768145817656158</v>
       </c>
       <c r="E42">
-        <v>9.758400476430548</v>
+        <v>5.049291465145497</v>
       </c>
       <c r="F42">
-        <v>4.752783599781981</v>
+        <v>3.831022629785722</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>10.23303603001877</v>
+        <v>13.17962513481599</v>
       </c>
       <c r="C43">
-        <v>2.054948387713675</v>
+        <v>3.403224190018737</v>
       </c>
       <c r="D43">
-        <v>13.43119071718751</v>
+        <v>9.979708346477722</v>
       </c>
       <c r="E43">
-        <v>9.963067925503067</v>
+        <v>5.146851175018265</v>
       </c>
       <c r="F43">
-        <v>4.840835987088525</v>
+        <v>3.88461021303236</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10.44336040709134</v>
+        <v>13.46905933949937</v>
       </c>
       <c r="C44">
-        <v>2.076915513523025</v>
+        <v>3.451699324387542</v>
       </c>
       <c r="D44">
-        <v>13.72513006401748</v>
+        <v>10.19115048021802</v>
       </c>
       <c r="E44">
-        <v>10.16744301465708</v>
+        <v>5.244363929826917</v>
       </c>
       <c r="F44">
-        <v>4.92874748057808</v>
+        <v>3.937348253469411</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10.65326924243718</v>
+        <v>13.75843892237302</v>
       </c>
       <c r="C45">
-        <v>2.098755698357204</v>
+        <v>3.499760213989797</v>
       </c>
       <c r="D45">
-        <v>14.01898601510883</v>
+        <v>10.40246735481345</v>
       </c>
       <c r="E45">
-        <v>10.37152576352929</v>
+        <v>5.341829965729959</v>
       </c>
       <c r="F45">
-        <v>5.016518148765512</v>
+        <v>3.989217975771656</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>10.86273896374063</v>
+        <v>14.0477575510134</v>
       </c>
       <c r="C46">
-        <v>2.120469617472704</v>
+        <v>3.54739984179451</v>
       </c>
       <c r="D46">
-        <v>14.31275490902865</v>
+        <v>10.61365326042339</v>
       </c>
       <c r="E46">
-        <v>10.57531493273835</v>
+        <v>5.43924940229251</v>
       </c>
       <c r="F46">
-        <v>5.10414779839808</v>
+        <v>4.040199075569232</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>11.07173993282451</v>
+        <v>14.33700782890875</v>
       </c>
       <c r="C47">
-        <v>2.142057808905789</v>
+        <v>3.594610182579638</v>
       </c>
       <c r="D47">
-        <v>14.60643210468873</v>
+        <v>10.82470155557262</v>
       </c>
       <c r="E47">
-        <v>10.7788078192445</v>
+        <v>5.536622207981008</v>
       </c>
       <c r="F47">
-        <v>5.191635905515818</v>
+        <v>4.090269613507535</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>11.28023593178417</v>
+        <v>14.62618106470416</v>
       </c>
       <c r="C48">
-        <v>2.163520658185384</v>
+        <v>3.641382096544933</v>
       </c>
       <c r="D48">
-        <v>14.90001178216581</v>
+        <v>11.03560446997405</v>
       </c>
       <c r="E48">
-        <v>10.98200003240864</v>
+        <v>5.633948151614248</v>
       </c>
       <c r="F48">
-        <v>5.278981575981392</v>
+        <v>4.1394058962201</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>11.48818224287002</v>
+        <v>14.91526701716562</v>
       </c>
       <c r="C49">
-        <v>2.184858347613433</v>
+        <v>3.687705211398366</v>
       </c>
       <c r="D49">
-        <v>15.19348668583584</v>
+        <v>11.24635291846212</v>
       </c>
       <c r="E49">
-        <v>11.18488519911976</v>
+        <v>5.731226736462564</v>
       </c>
       <c r="F49">
-        <v>5.366183479941145</v>
+        <v>4.18758234278109</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>11.69552448982768</v>
+        <v>15.20425350897807</v>
       </c>
       <c r="C50">
-        <v>2.206070826258635</v>
+        <v>3.73356779031934</v>
       </c>
       <c r="D50">
-        <v>15.48684781708</v>
+        <v>11.45693622153807</v>
       </c>
       <c r="E50">
-        <v>11.38745453242802</v>
+        <v>5.828457095246283</v>
       </c>
       <c r="F50">
-        <v>5.453239774251788</v>
+        <v>4.234771352686145</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>11.9021969324678</v>
+        <v>15.49312597979605</v>
       </c>
       <c r="C51">
-        <v>2.227157726239954</v>
+        <v>3.778956555709672</v>
       </c>
       <c r="D51">
-        <v>15.78008403098679</v>
+        <v>11.6673417978912</v>
       </c>
       <c r="E51">
-        <v>11.58969633560073</v>
+        <v>5.925637850615549</v>
       </c>
       <c r="F51">
-        <v>5.540148001719994</v>
+        <v>4.280943145324185</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>12.10812049893789</v>
+        <v>15.78186687684333</v>
       </c>
       <c r="C52">
-        <v>2.248118291281381</v>
+        <v>3.823856502890537</v>
       </c>
       <c r="D52">
-        <v>16.07318146052212</v>
+        <v>11.87755479405081</v>
       </c>
       <c r="E52">
-        <v>11.79159548058717</v>
+        <v>6.022766911747107</v>
       </c>
       <c r="F52">
-        <v>5.626904958169393</v>
+        <v>4.326065598307578</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>12.31320049901772</v>
+        <v>16.0704550156809</v>
       </c>
       <c r="C53">
-        <v>2.268951274532955</v>
+        <v>3.868250704867337</v>
       </c>
       <c r="D53">
-        <v>16.36612281594388</v>
+        <v>12.08755758368514</v>
       </c>
       <c r="E53">
-        <v>11.99313244873838</v>
+        <v>6.119841174236667</v>
       </c>
       <c r="F53">
-        <v>5.713506526688048</v>
+        <v>4.370104073182176</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>12.51732393615835</v>
+        <v>16.35886435597601</v>
       </c>
       <c r="C54">
-        <v>2.289654796692226</v>
+        <v>3.912120031375183</v>
       </c>
       <c r="D54">
-        <v>16.65888647230528</v>
+        <v>12.29732912522966</v>
       </c>
       <c r="E54">
-        <v>12.19428226484524</v>
+        <v>6.216856087756185</v>
       </c>
       <c r="F54">
-        <v>5.799947462863342</v>
+        <v>4.413021239291917</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12.7203564462201</v>
+        <v>16.64706275341403</v>
       </c>
       <c r="C55">
-        <v>2.310226161660445</v>
+        <v>3.955442850691963</v>
       </c>
       <c r="D55">
-        <v>16.95144521329771</v>
+        <v>12.50684413963295</v>
       </c>
       <c r="E55">
-        <v>12.39501355441605</v>
+        <v>6.313805034692929</v>
       </c>
       <c r="F55">
-        <v>5.886221110515542</v>
+        <v>4.454776867119281</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>12.92213894038225</v>
+        <v>16.93501019080934</v>
       </c>
       <c r="C56">
-        <v>2.330661599660459</v>
+        <v>3.998194731542467</v>
       </c>
       <c r="D56">
-        <v>17.24376450077584</v>
+        <v>12.71607204395865</v>
       </c>
       <c r="E56">
-        <v>12.59528614368234</v>
+        <v>6.410678455142853</v>
       </c>
       <c r="F56">
-        <v>5.972319063752096</v>
+        <v>4.495327633587682</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>13.12248385385057</v>
+        <v>17.2226563351558</v>
       </c>
       <c r="C57">
-        <v>2.350955930750076</v>
+        <v>4.040347948275632</v>
       </c>
       <c r="D57">
-        <v>17.5358001234009</v>
+        <v>12.92497553582703</v>
       </c>
       <c r="E57">
-        <v>12.79504899198119</v>
+        <v>6.507462617765931</v>
       </c>
       <c r="F57">
-        <v>6.058230603161179</v>
+        <v>4.534626923126176</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>13.32117104873063</v>
+        <v>17.50993717460242</v>
       </c>
       <c r="C58">
-        <v>2.371102143258949</v>
+        <v>4.081871032253397</v>
       </c>
       <c r="D58">
-        <v>17.82749490389713</v>
+        <v>13.13350888687371</v>
       </c>
       <c r="E58">
-        <v>12.994237174312</v>
+        <v>6.604137909326881</v>
       </c>
       <c r="F58">
-        <v>6.143942056296952</v>
+        <v>4.572624624366121</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>13.51794345285135</v>
+        <v>17.79677040808341</v>
       </c>
       <c r="C59">
-        <v>2.391090816569243</v>
+        <v>4.122728212523391</v>
       </c>
       <c r="D59">
-        <v>18.11877406599779</v>
+        <v>13.34161514570985</v>
       </c>
       <c r="E59">
-        <v>13.19276785031301</v>
+        <v>6.700676577870714</v>
       </c>
       <c r="F59">
-        <v>6.229435888632229</v>
+        <v>4.609266945167806</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>13.71250258209348</v>
+        <v>18.08304905301647</v>
       </c>
       <c r="C60">
-        <v>2.410909357250608</v>
+        <v>4.162878741173798</v>
       </c>
       <c r="D60">
-        <v>18.40953872537447</v>
+        <v>13.54922289227772</v>
       </c>
       <c r="E60">
-        <v>13.39053493181241</v>
+        <v>6.797039706393009</v>
       </c>
       <c r="F60">
-        <v>6.314689421625424</v>
+        <v>4.644496263854932</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>13.9045041443362</v>
+        <v>18.36863262836932</v>
       </c>
       <c r="C61">
-        <v>2.430541011617819</v>
+        <v>4.202276090249652</v>
       </c>
       <c r="D61">
-        <v>18.69965636431132</v>
+        <v>13.75624162886286</v>
       </c>
       <c r="E61">
-        <v>13.58740190304555</v>
+        <v>6.893173276873703</v>
       </c>
       <c r="F61">
-        <v>6.399673034649169</v>
+        <v>4.678250999191219</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>14.09355399805325</v>
+        <v>18.65333389274428</v>
       </c>
       <c r="C62">
-        <v>2.449963610278533</v>
+        <v>4.240867013659354</v>
       </c>
       <c r="D62">
-        <v>18.98894675987997</v>
+        <v>13.96255528740495</v>
       </c>
       <c r="E62">
-        <v>13.78319189229737</v>
+        <v>6.989003135771593</v>
       </c>
       <c r="F62">
-        <v>6.484347630819997</v>
+        <v>4.710465567080385</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>14.27920498196397</v>
+        <v>18.93690141517335</v>
       </c>
       <c r="C63">
-        <v>2.46914795851281</v>
+        <v>4.27859045820966</v>
       </c>
       <c r="D63">
-        <v>19.27716282922005</v>
+        <v>14.16801312849634</v>
       </c>
       <c r="E63">
-        <v>13.97767562175659</v>
+        <v>7.084428661472838</v>
       </c>
       <c r="F63">
-        <v>6.56866101876353</v>
+        <v>4.741070444636787</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>14.46095491934902</v>
+        <v>19.21899472093372</v>
       </c>
       <c r="C64">
-        <v>2.488055841458789</v>
+        <v>4.315376305830366</v>
       </c>
       <c r="D64">
-        <v>19.56396229810064</v>
+        <v>14.37241702221644</v>
       </c>
       <c r="E64">
-        <v>14.1705551273033</v>
+        <v>7.179314998446255</v>
       </c>
       <c r="F64">
-        <v>6.652542823198144</v>
+        <v>4.769992303263803</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>14.63824685073144</v>
+        <v>19.49914925953191</v>
       </c>
       <c r="C65">
-        <v>2.506637616007025</v>
+        <v>4.351143941845081</v>
       </c>
       <c r="D65">
-        <v>19.84886781613005</v>
+        <v>14.57550377316391</v>
       </c>
       <c r="E65">
-        <v>14.36144244560385</v>
+        <v>7.27348382674744</v>
       </c>
       <c r="F65">
-        <v>6.735896679362972</v>
+        <v>4.797154497859272</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>14.81047247410197</v>
+        <v>19.77673003040541</v>
       </c>
       <c r="C66">
-        <v>2.524829403422378</v>
+        <v>4.385800670540763</v>
       </c>
       <c r="D66">
-        <v>20.13121407698625</v>
+        <v>14.77691898200497</v>
       </c>
       <c r="E66">
-        <v>14.54983313590771</v>
+        <v>7.366702874216112</v>
       </c>
       <c r="F66">
-        <v>6.818589828582685</v>
+        <v>4.822477664939082</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>14.97697817478396</v>
+        <v>20.05087068761358</v>
       </c>
       <c r="C67">
-        <v>2.542549950356092</v>
+        <v>4.41924004156211</v>
       </c>
       <c r="D67">
-        <v>20.41007934669085</v>
+        <v>14.97618286006552</v>
       </c>
       <c r="E67">
-        <v>14.7350746648383</v>
+        <v>7.458674779136566</v>
       </c>
       <c r="F67">
-        <v>6.900438022730031</v>
+        <v>4.845880642894207</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>15.13707581324233</v>
+        <v>20.32040047602856</v>
       </c>
       <c r="C68">
-        <v>2.559697397562034</v>
+        <v>4.451340189130937</v>
       </c>
       <c r="D68">
-        <v>20.68420564907705</v>
+        <v>15.17264292946197</v>
       </c>
       <c r="E68">
-        <v>14.91633021617954</v>
+        <v>7.549026545436043</v>
       </c>
       <c r="F68">
-        <v>6.981185107703884</v>
+        <v>4.867281819503938</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>15.2900584197705</v>
+        <v>20.58376427378799</v>
       </c>
       <c r="C69">
-        <v>2.576146335902244</v>
+        <v>4.481962477940394</v>
       </c>
       <c r="D69">
-        <v>20.95191807944629</v>
+        <v>15.36541412406432</v>
       </c>
       <c r="E69">
-        <v>15.09254228754551</v>
+        <v>7.6373014123069</v>
       </c>
       <c r="F69">
-        <v>7.060477123507544</v>
+        <v>4.886600946591795</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>15.43522090404589</v>
+        <v>20.83895398258833</v>
       </c>
       <c r="C70">
-        <v>2.591745750850271</v>
+        <v>4.51095082061226</v>
       </c>
       <c r="D70">
-        <v>21.21106513066164</v>
+        <v>15.5533106928934</v>
       </c>
       <c r="E70">
-        <v>15.26240301701295</v>
+        <v>7.722956311496398</v>
       </c>
       <c r="F70">
-        <v>7.137832308285059</v>
+        <v>4.903761435396582</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>15.57188496502701</v>
+        <v>21.0834814459135</v>
       </c>
       <c r="C71">
-        <v>2.606318746992739</v>
+        <v>4.538132191933371</v>
       </c>
       <c r="D71">
-        <v>21.45901439782838</v>
+        <v>15.73478286383174</v>
       </c>
       <c r="E71">
-        <v>15.42434531629561</v>
+        <v>7.805368368832533</v>
       </c>
       <c r="F71">
-        <v>7.212612664659242</v>
+        <v>4.918693127133335</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>15.69942737643296</v>
+        <v>21.31443530703752</v>
       </c>
       <c r="C72">
-        <v>2.619665005446934</v>
+        <v>4.563319032518785</v>
       </c>
       <c r="D72">
-        <v>21.69274608961066</v>
+        <v>15.90788883370744</v>
       </c>
       <c r="E72">
-        <v>15.57657192304715</v>
+        <v>7.883855586147823</v>
       </c>
       <c r="F72">
-        <v>7.284007850350196</v>
+        <v>4.931335475497248</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>15.8173094758731</v>
+        <v>21.52866677732089</v>
       </c>
       <c r="C73">
-        <v>2.631567523772346</v>
+        <v>4.586314624620509</v>
       </c>
       <c r="D73">
-        <v>21.90908026889695</v>
+        <v>16.07034486514739</v>
       </c>
       <c r="E73">
-        <v>15.71713944746688</v>
+        <v>7.957711258652064</v>
       </c>
       <c r="F73">
-        <v>7.351047177672493</v>
+        <v>4.941640978331732</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>15.92510554211106</v>
+        <v>21.72312304295518</v>
       </c>
       <c r="C74">
-        <v>2.641803351208334</v>
+        <v>4.60692143195178</v>
       </c>
       <c r="D74">
-        <v>22.10504010308231</v>
+        <v>16.21969896568778</v>
       </c>
       <c r="E74">
-        <v>15.84411296638152</v>
+        <v>8.026255182090862</v>
       </c>
       <c r="F74">
-        <v>7.412657219496126</v>
+        <v>4.94957859676612</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>16.02252685702548</v>
+        <v>21.89528895486163</v>
       </c>
       <c r="C75">
-        <v>2.650159068149526</v>
+        <v>4.624952803987101</v>
       </c>
       <c r="D75">
-        <v>22.27829300116829</v>
+        <v>16.35364456803024</v>
       </c>
       <c r="E75">
-        <v>15.95578089783317</v>
+        <v>8.088894772955571</v>
       </c>
       <c r="F75">
-        <v>7.467774029045549</v>
+        <v>4.955136813831759</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>16.10943877742385</v>
+        <v>22.04362507898169</v>
       </c>
       <c r="C76">
-        <v>2.656449328242894</v>
+        <v>4.64024666167033</v>
       </c>
       <c r="D76">
-        <v>22.42754958119799</v>
+        <v>16.47042035106833</v>
       </c>
       <c r="E76">
-        <v>16.05089431984358</v>
+        <v>8.145186530012589</v>
       </c>
       <c r="F76">
-        <v>7.515498170224588</v>
+        <v>4.958325837516592</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>16.18586909957611</v>
+        <v>22.16785251740507</v>
       </c>
       <c r="C77">
-        <v>2.660535523675171</v>
+        <v>4.6526790116952</v>
       </c>
       <c r="D77">
-        <v>22.55278379986678</v>
+        <v>16.56917036913396</v>
       </c>
       <c r="E77">
-        <v>16.1288687024767</v>
+        <v>8.194885356950655</v>
       </c>
       <c r="F77">
-        <v>7.555253831543973</v>
+        <v>4.959178764928668</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>16.25200496236945</v>
+        <v>22.26897646726466</v>
       </c>
       <c r="C78">
-        <v>2.662341189160442</v>
+        <v>4.66217466515355</v>
       </c>
       <c r="D78">
-        <v>22.6551952089157</v>
+        <v>16.65011957832414</v>
       </c>
       <c r="E78">
-        <v>16.18988419153283</v>
+        <v>8.237969825095876</v>
       </c>
       <c r="F78">
-        <v>7.58689727712004</v>
+        <v>4.957751469257143</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>16.30818188878763</v>
+        <v>22.34904854572646</v>
       </c>
       <c r="C79">
-        <v>2.661860630127046</v>
+        <v>4.66871297045751</v>
       </c>
       <c r="D79">
-        <v>22.73693907469338</v>
+        <v>16.71449249350467</v>
       </c>
       <c r="E79">
-        <v>16.23484635917642</v>
+        <v>8.274637796534803</v>
       </c>
       <c r="F79">
-        <v>7.610733291119049</v>
+        <v>4.954121036566251</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>16.35486384984407</v>
+        <v>22.41077116734821</v>
       </c>
       <c r="C80">
-        <v>2.659158822993585</v>
+        <v>4.672327742363722</v>
       </c>
       <c r="D80">
-        <v>22.80073436265068</v>
+        <v>16.76422416914313</v>
       </c>
       <c r="E80">
-        <v>16.26523166220579</v>
+        <v>8.305274607700342</v>
       </c>
       <c r="F80">
-        <v>7.627436774423907</v>
+        <v>4.948383104583175</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>16.39261703290606</v>
+        <v>22.45708402003867</v>
       </c>
       <c r="C81">
-        <v>2.654362888842393</v>
+        <v>4.673102042053651</v>
       </c>
       <c r="D81">
-        <v>22.84947644573358</v>
+        <v>16.80159098010598</v>
       </c>
       <c r="E81">
-        <v>16.28286237406702</v>
+        <v>8.330402804674577</v>
       </c>
       <c r="F81">
-        <v>7.63791600736845</v>
+        <v>4.940648273400353</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>16.42208123532278</v>
+        <v>22.4908355695136</v>
       </c>
       <c r="C82">
-        <v>2.647647370917742</v>
+        <v>4.67115944855858</v>
       </c>
       <c r="D82">
-        <v>22.88593990779301</v>
+        <v>16.8288854547692</v>
       </c>
       <c r="E82">
-        <v>16.28968129903039</v>
+        <v>8.350625343059507</v>
       </c>
       <c r="F82">
-        <v>7.643167463228453</v>
+        <v>4.931038103131445</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>16.44394104464552</v>
+        <v>22.51457885435273</v>
       </c>
       <c r="C83">
-        <v>2.639216684043954</v>
+        <v>4.666653744891754</v>
       </c>
       <c r="D83">
-        <v>22.91259902183837</v>
+        <v>16.84819852792505</v>
       </c>
       <c r="E83">
-        <v>16.28757086265412</v>
+        <v>8.366572822272845</v>
       </c>
       <c r="F83">
-        <v>7.644160083721967</v>
+        <v>4.919681050638607</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>16.45889900977476</v>
+        <v>22.53048056738601</v>
       </c>
       <c r="C84">
-        <v>2.62928800478893</v>
+        <v>4.659758623707636</v>
       </c>
       <c r="D84">
-        <v>22.9315511094375</v>
+        <v>16.86131322663138</v>
       </c>
       <c r="E84">
-        <v>16.27823625983471</v>
+        <v>8.378861471102745</v>
       </c>
       <c r="F84">
-        <v>7.641763213941569</v>
+        <v>4.906708685576971</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>16.46765276071033</v>
+        <v>22.54031003343082</v>
       </c>
       <c r="C85">
-        <v>2.618076960005791</v>
+        <v>4.650658486262738</v>
       </c>
       <c r="D85">
-        <v>22.94451110709185</v>
+        <v>16.86968104943258</v>
       </c>
       <c r="E85">
-        <v>16.26314850641845</v>
+        <v>8.388064299511244</v>
       </c>
       <c r="F85">
-        <v>7.636714566239738</v>
+        <v>4.892252396969603</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>16.47087665112626</v>
+        <v>22.5454736004383</v>
       </c>
       <c r="C86">
-        <v>2.605787181286052</v>
+        <v>4.639540854720352</v>
       </c>
       <c r="D86">
-        <v>22.9528461560844</v>
+        <v>16.87444644941963</v>
       </c>
       <c r="E86">
-        <v>16.24353210723405</v>
+        <v>8.394694648589835</v>
       </c>
       <c r="F86">
-        <v>7.629616152562877</v>
+        <v>4.876440733820549</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>16.46920822510529</v>
+        <v>22.54706848427777</v>
       </c>
       <c r="C87">
-        <v>2.592603799153974</v>
+        <v>4.626590536868266</v>
       </c>
       <c r="D87">
-        <v>22.95762712741865</v>
+        <v>16.87649255622707</v>
       </c>
       <c r="E87">
-        <v>16.22038034550272</v>
+        <v>8.399199606882092</v>
       </c>
       <c r="F87">
-        <v>7.620946091321347</v>
+        <v>4.859397374432688</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>16.46323924161128</v>
+        <v>22.54594007950525</v>
       </c>
       <c r="C88">
-        <v>2.57869027707996</v>
+        <v>4.611985436822161</v>
       </c>
       <c r="D88">
-        <v>22.95968282369254</v>
+        <v>16.87649125562507</v>
       </c>
       <c r="E88">
-        <v>16.19448408370048</v>
+        <v>8.40196031077423</v>
       </c>
       <c r="F88">
-        <v>7.611077119652568</v>
+        <v>4.841239681068105</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>16.45351054549812</v>
+        <v>22.54273471757512</v>
       </c>
       <c r="C89">
-        <v>2.564187753731965</v>
+        <v>4.595893759150864</v>
       </c>
       <c r="D89">
-        <v>22.95965006079283</v>
+        <v>16.87494935627819</v>
       </c>
       <c r="E89">
-        <v>16.16646477998117</v>
+        <v>8.403296470822559</v>
       </c>
       <c r="F89">
-        <v>7.600296261622504</v>
+        <v>4.822077805306436</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>16.44051016093023</v>
+        <v>22.53794442427921</v>
       </c>
       <c r="C90">
-        <v>2.549216005559751</v>
+        <v>4.578472339687428</v>
       </c>
       <c r="D90">
-        <v>22.95801590868849</v>
+        <v>16.87224725020303</v>
       </c>
       <c r="E90">
-        <v>16.13680668829451</v>
+        <v>8.403473059659634</v>
       </c>
       <c r="F90">
-        <v>7.588822848819379</v>
+        <v>4.802014177062275</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>16.42467376387471</v>
+        <v>22.53194253828878</v>
       </c>
       <c r="C91">
-        <v>2.533875358322207</v>
+        <v>4.559865835296772</v>
       </c>
       <c r="D91">
-        <v>22.95515209077065</v>
+        <v>16.86866972699454</v>
       </c>
       <c r="E91">
-        <v>16.10588491166671</v>
+        <v>8.402707739669227</v>
       </c>
       <c r="F91">
-        <v>7.576823794942115</v>
+        <v>4.781143358528948</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>16.40638684577471</v>
+        <v>22.52501236803587</v>
       </c>
       <c r="C92">
-        <v>2.518249022453805</v>
+        <v>4.54020654472223</v>
       </c>
       <c r="D92">
-        <v>22.95134187681283</v>
+        <v>16.86442997882089</v>
       </c>
       <c r="E92">
-        <v>16.0739889883084</v>
+        <v>8.4011781735614</v>
       </c>
       <c r="F92">
-        <v>7.564425766330735</v>
+        <v>4.759552130851124</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>16.38598801203197</v>
+        <v>22.51736904419599</v>
       </c>
       <c r="C93">
-        <v>2.502405505067443</v>
+        <v>4.5196146615061</v>
       </c>
       <c r="D93">
-        <v>22.94680133826281</v>
+        <v>16.85968773173634</v>
       </c>
       <c r="E93">
-        <v>16.04134211976658</v>
+        <v>8.399028763809888</v>
       </c>
       <c r="F93">
-        <v>7.551724913855665</v>
+        <v>4.737319753582762</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>16.36377290423812</v>
+        <v>22.50917611812448</v>
       </c>
       <c r="C94">
-        <v>2.48640091188191</v>
+        <v>4.498198802669497</v>
       </c>
       <c r="D94">
-        <v>22.94169567984386</v>
+        <v>16.85456295106092</v>
       </c>
       <c r="E94">
-        <v>16.00811629414334</v>
+        <v>8.396376540566374</v>
       </c>
       <c r="F94">
-        <v>7.538794254843917</v>
+        <v>4.714518346854018</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>16.3399983649136</v>
+        <v>22.50055829695209</v>
       </c>
       <c r="C95">
-        <v>2.47028103158485</v>
+        <v>4.476056733246789</v>
       </c>
       <c r="D95">
-        <v>22.93615136672399</v>
+        <v>16.84914590975031</v>
       </c>
       <c r="E95">
-        <v>15.97444412979713</v>
+        <v>8.393316158724334</v>
       </c>
       <c r="F95">
-        <v>7.52568936121192</v>
+        <v>4.69121333560999</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>16.31488662929364</v>
+        <v>22.49161084482947</v>
       </c>
       <c r="C96">
-        <v>2.454083136522785</v>
+        <v>4.45327620830448</v>
       </c>
       <c r="D96">
-        <v>22.93026542716807</v>
+        <v>16.84350480984897</v>
       </c>
       <c r="E96">
-        <v>15.94042804606988</v>
+        <v>8.38992412298288</v>
       </c>
       <c r="F96">
-        <v>7.512452607431471</v>
+        <v>4.667463936954982</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>16.28862941918781</v>
+        <v>22.48240678990794</v>
       </c>
       <c r="C97">
-        <v>2.437837510980299</v>
+        <v>4.42993580026638</v>
       </c>
       <c r="D97">
-        <v>22.92411256592566</v>
+        <v>16.8376913108096</v>
       </c>
       <c r="E97">
-        <v>15.90614729371788</v>
+        <v>8.386262271371901</v>
       </c>
       <c r="F97">
-        <v>7.49911640958917</v>
+        <v>4.643323651411826</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>16.26139174769483</v>
+        <v>22.47300230069824</v>
       </c>
       <c r="C98">
-        <v>2.421568743737203</v>
+        <v>4.406105736108087</v>
       </c>
       <c r="D98">
-        <v>22.91775048723614</v>
+        <v>16.83174471052865</v>
       </c>
       <c r="E98">
-        <v>15.87166333354388</v>
+        <v>8.382380605546564</v>
       </c>
       <c r="F98">
-        <v>7.485705635613843</v>
+        <v>4.618840749971747</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>16.23331535937102</v>
+        <v>22.46344068480823</v>
       </c>
       <c r="C99">
-        <v>2.405296797036046</v>
+        <v>4.381848716653635</v>
       </c>
       <c r="D99">
-        <v>22.91122387287787</v>
+        <v>16.82569499596268</v>
       </c>
       <c r="E99">
-        <v>15.83702394912313</v>
+        <v>8.378319590845258</v>
       </c>
       <c r="F99">
-        <v>7.472239427669665</v>
+        <v>4.594058748273113</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>16.20452182908094</v>
+        <v>22.45375548572893</v>
       </c>
       <c r="C100">
-        <v>2.38903787630583</v>
+        <v>4.357220685827297</v>
       </c>
       <c r="D100">
-        <v>22.90456743947764</v>
+        <v>16.81956514638056</v>
       </c>
       <c r="E100">
-        <v>15.80226638017188</v>
+        <v>8.374112010907098</v>
       </c>
       <c r="F100">
-        <v>7.458732570494114</v>
+        <v>4.56901685180198</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>16.17511533702427</v>
+        <v>22.4439727518712</v>
       </c>
       <c r="C101">
-        <v>2.372805141517769</v>
+        <v>4.332271536674695</v>
       </c>
       <c r="D101">
-        <v>22.8978082718219</v>
+        <v>16.81337281771811</v>
       </c>
       <c r="E101">
-        <v>15.76741980344621</v>
+        <v>8.369784468053453</v>
       </c>
       <c r="F101">
-        <v>7.445196522614104</v>
+        <v>4.54375036899494</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>16.14518511557673</v>
+        <v>22.43411278106556</v>
       </c>
       <c r="C102">
-        <v>2.356609284450702</v>
+        <v>4.307045762698214</v>
       </c>
       <c r="D102">
-        <v>22.89096755607902</v>
+        <v>16.80713162648285</v>
       </c>
       <c r="E102">
-        <v>15.73250714417328</v>
+        <v>8.365358588593821</v>
       </c>
       <c r="F102">
-        <v>7.431640195202795</v>
+        <v>4.518291091689839</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>16.11480757625436</v>
+        <v>22.42419145354358</v>
       </c>
       <c r="C103">
-        <v>2.340458997525565</v>
+        <v>4.281583048598884</v>
       </c>
       <c r="D103">
-        <v>22.88406191672053</v>
+        <v>16.80085215568676</v>
       </c>
       <c r="E103">
-        <v>15.6975464095476</v>
+        <v>8.360851979155667</v>
       </c>
       <c r="F103">
-        <v>7.418070532644855</v>
+        <v>4.492667646925199</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>16.08404814905602</v>
+        <v>22.41422120134827</v>
       </c>
       <c r="C104">
-        <v>2.324361353460776</v>
+        <v>4.2559188027238</v>
       </c>
       <c r="D104">
-        <v>22.87710445387365</v>
+        <v>16.79454265844983</v>
       </c>
       <c r="E104">
-        <v>15.66255179047197</v>
+        <v>8.356279001765104</v>
       </c>
       <c r="F104">
-        <v>7.404492980327533</v>
+        <v>4.466905817029198</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>16.05296287217919</v>
+        <v>22.40421181599718</v>
       </c>
       <c r="C105">
-        <v>2.30832210768402</v>
+        <v>4.230084632045338</v>
       </c>
       <c r="D105">
-        <v>22.87010549964446</v>
+        <v>16.78820955764322</v>
       </c>
       <c r="E105">
-        <v>15.62753453544732</v>
+        <v>8.351651394180957</v>
       </c>
       <c r="F105">
-        <v>7.390911834589913</v>
+        <v>4.441028829813327</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>16.02159976188949</v>
+        <v>22.39417107376704</v>
       </c>
       <c r="C106">
-        <v>2.292345945592567</v>
+        <v>4.2041087667813</v>
       </c>
       <c r="D106">
-        <v>22.86307324305922</v>
+        <v>16.78185785825966</v>
       </c>
       <c r="E106">
-        <v>15.59250360041885</v>
+        <v>8.346978768338642</v>
       </c>
       <c r="F106">
-        <v>7.377330485527128</v>
+        <v>4.415057620177199</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>15.98999998652784</v>
+        <v>22.38410514868635</v>
       </c>
       <c r="C107">
-        <v>2.276436681632556</v>
+        <v>4.178016441271176</v>
       </c>
       <c r="D107">
-        <v>22.85601422221912</v>
+        <v>16.77549149088636</v>
       </c>
       <c r="E107">
-        <v>15.55746612649662</v>
+        <v>8.342269013589046</v>
       </c>
       <c r="F107">
-        <v>7.363751604310385</v>
+        <v>4.389011065486629</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>15.95819886890941</v>
+        <v>22.37401892950487</v>
       </c>
       <c r="C108">
-        <v>2.260597419791494</v>
+        <v>4.151830247175262</v>
       </c>
       <c r="D108">
-        <v>22.84893366767221</v>
+        <v>16.76911356605005</v>
       </c>
       <c r="E108">
-        <v>15.52242781914089</v>
+        <v>8.337528616105004</v>
       </c>
       <c r="F108">
-        <v>7.350177304379705</v>
+        <v>4.362906197191521</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>15.92622674161788</v>
+        <v>22.36391629478394</v>
       </c>
       <c r="C109">
-        <v>2.244830684864487</v>
+        <v>4.125570420896249</v>
       </c>
       <c r="D109">
-        <v>22.8418357644415</v>
+        <v>16.7627265502083</v>
       </c>
       <c r="E109">
-        <v>15.48739324309068</v>
+        <v>8.332762919937847</v>
       </c>
       <c r="F109">
-        <v>7.336609271795814</v>
+        <v>4.336758390707668</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>15.89410967646901</v>
+        <v>22.35380034121524</v>
       </c>
       <c r="C110">
-        <v>2.229138526688982</v>
+        <v>4.099255092959092</v>
       </c>
       <c r="D110">
-        <v>22.83472385584599</v>
+        <v>16.7563323974631</v>
       </c>
       <c r="E110">
-        <v>15.45236608517652</v>
+        <v>8.327976329280663</v>
       </c>
       <c r="F110">
-        <v>7.323048859395742</v>
+        <v>4.310581535903045</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>15.86187010705339</v>
+        <v>22.34367355944163</v>
       </c>
       <c r="C111">
-        <v>2.213522603808231</v>
+        <v>4.072900528668211</v>
       </c>
       <c r="D111">
-        <v>22.82760062073996</v>
+        <v>16.74993265353077</v>
       </c>
       <c r="E111">
-        <v>15.41734933181086</v>
+        <v>8.323172491006652</v>
       </c>
       <c r="F111">
-        <v>7.309497153475808</v>
+        <v>4.284388189591986</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>15.82952735887677</v>
+        <v>22.33353796156934</v>
       </c>
       <c r="C112">
-        <v>2.197984255647651</v>
+        <v>4.046521338171122</v>
       </c>
       <c r="D112">
-        <v>22.82046822072816</v>
+        <v>16.74352855697824</v>
       </c>
       <c r="E112">
-        <v>15.38234540065417</v>
+        <v>8.31835443493101</v>
       </c>
       <c r="F112">
-        <v>7.295955026223532</v>
+        <v>4.258189711094486</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>15.797098098456</v>
+        <v>22.32339517279312</v>
       </c>
       <c r="C113">
-        <v>2.182524560389248</v>
+        <v>4.020130660586394</v>
       </c>
       <c r="D113">
-        <v>22.81332841723551</v>
+        <v>16.73712108852467</v>
       </c>
       <c r="E113">
-        <v>15.34735631449067</v>
+        <v>8.31352467925082</v>
       </c>
       <c r="F113">
-        <v>7.282423175810559</v>
+        <v>4.231996384295967</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>15.7645967173048</v>
+        <v>22.31324650537758</v>
       </c>
       <c r="C114">
-        <v>2.167144379138074</v>
+        <v>3.993740327365295</v>
       </c>
       <c r="D114">
-        <v>22.80618264408493</v>
+        <v>16.73071106559757</v>
       </c>
       <c r="E114">
-        <v>15.31238367505462</v>
+        <v>8.308685319521887</v>
       </c>
       <c r="F114">
-        <v>7.268902173052521</v>
+        <v>4.205817526519299</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>15.73203565847317</v>
+        <v>22.3030930127027</v>
       </c>
       <c r="C115">
-        <v>2.151844401358887</v>
+        <v>3.967361004385658</v>
       </c>
       <c r="D115">
-        <v>22.79903206775674</v>
+        <v>16.72429913937859</v>
       </c>
       <c r="E115">
-        <v>15.27742879750881</v>
+        <v>8.303838106039809</v>
       </c>
       <c r="F115">
-        <v>7.255392480161589</v>
+        <v>4.179661585855432</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>15.69942569124649</v>
+        <v>22.292935560968</v>
       </c>
       <c r="C116">
-        <v>2.136625159328989</v>
+        <v>3.941002312058569</v>
       </c>
       <c r="D116">
-        <v>22.79187763801791</v>
+        <v>16.71788582549335</v>
       </c>
       <c r="E116">
-        <v>15.24249276346499</v>
+        <v>8.298984487468523</v>
       </c>
       <c r="F116">
-        <v>7.241894476187193</v>
+        <v>4.153536228165152</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>15.66677614478504</v>
+        <v>22.28277483472038</v>
       </c>
       <c r="C117">
-        <v>2.121487060271434</v>
+        <v>3.914672939710302</v>
       </c>
       <c r="D117">
-        <v>22.78472012273397</v>
+        <v>16.71147155814436</v>
       </c>
       <c r="E117">
-        <v>15.20757646955586</v>
+        <v>8.294125678492607</v>
       </c>
       <c r="F117">
-        <v>7.228408482612356</v>
+        <v>4.127448414865525</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>15.63409511293065</v>
+        <v>22.27261144098934</v>
       </c>
       <c r="C118">
-        <v>2.106430409126264</v>
+        <v>3.888380745043126</v>
       </c>
       <c r="D118">
-        <v>22.77756016490834</v>
+        <v>16.70505666908205</v>
       </c>
       <c r="E118">
-        <v>15.172680666538</v>
+        <v>8.289262699072465</v>
       </c>
       <c r="F118">
-        <v>7.214934749197115</v>
+        <v>4.101404471076999</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>15.60138967239065</v>
+        <v>22.26244583490802</v>
       </c>
       <c r="C119">
-        <v>2.091455425675239</v>
+        <v>3.862132841858852</v>
       </c>
       <c r="D119">
-        <v>22.77039827214921</v>
+        <v>16.69864143239005</v>
       </c>
       <c r="E119">
-        <v>15.1378059824466</v>
+        <v>8.284396407449</v>
       </c>
       <c r="F119">
-        <v>7.201473490688183</v>
+        <v>4.075410147626952</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>15.56866596094772</v>
+        <v>22.25227843278035</v>
       </c>
       <c r="C120">
-        <v>2.076562259927526</v>
+        <v>3.835935677121781</v>
       </c>
       <c r="D120">
-        <v>22.76323490441712</v>
+        <v>16.69222607275567</v>
       </c>
       <c r="E120">
-        <v>15.10295295107951</v>
+        <v>8.279527529131412</v>
       </c>
       <c r="F120">
-        <v>7.18802487744992</v>
+        <v>4.049470678943858</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>15.53592933153656</v>
+        <v>22.2421095459251</v>
       </c>
       <c r="C121">
-        <v>2.061751001454367</v>
+        <v>3.80979510176883</v>
       </c>
       <c r="D121">
-        <v>22.75607040305265</v>
+        <v>16.68581077617018</v>
       </c>
       <c r="E121">
-        <v>15.06812201966135</v>
+        <v>8.274656672233158</v>
       </c>
       <c r="F121">
-        <v>7.174589052015637</v>
+        <v>4.023590842648236</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>15.5031844794721</v>
+        <v>22.23193944085151</v>
       </c>
       <c r="C122">
-        <v>2.047021689255587</v>
+        <v>3.783716428291193</v>
       </c>
       <c r="D122">
-        <v>22.74890509236649</v>
+        <v>16.67939569376967</v>
       </c>
       <c r="E122">
-        <v>15.03331356626865</v>
+        <v>8.269784349942384</v>
       </c>
       <c r="F122">
-        <v>7.161166134324382</v>
+        <v>3.997774979415529</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>15.47043547567208</v>
+        <v>22.2217683331758</v>
       </c>
       <c r="C123">
-        <v>2.032374319563529</v>
+        <v>3.75770448661563</v>
       </c>
       <c r="D123">
-        <v>22.74173920705787</v>
+        <v>16.67298095577478</v>
       </c>
       <c r="E123">
-        <v>14.9985279151454</v>
+        <v>8.26491099606403</v>
       </c>
       <c r="F123">
-        <v>7.147756226155257</v>
+        <v>3.972027070302317</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>15.43768589208531</v>
+        <v>22.21159639857092</v>
       </c>
       <c r="C124">
-        <v>2.017808852770971</v>
+        <v>3.731763672509955</v>
       </c>
       <c r="D124">
-        <v>22.73457296174618</v>
+        <v>16.66656666459742</v>
       </c>
       <c r="E124">
-        <v>14.96376534340929</v>
+        <v>8.26003697449525</v>
       </c>
       <c r="F124">
-        <v>7.134359412419961</v>
+        <v>3.94635073014931</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>15.40493886910265</v>
+        <v>22.20142378584257</v>
       </c>
       <c r="C125">
-        <v>2.00332521797883</v>
+        <v>3.705897990596273</v>
       </c>
       <c r="D125">
-        <v>22.72740652105729</v>
+        <v>16.66015290552671</v>
       </c>
       <c r="E125">
-        <v>14.92902609518773</v>
+        <v>8.255162599985368</v>
       </c>
       <c r="F125">
-        <v>7.120975768300939</v>
+        <v>3.920749265640745</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>15.37219716546623</v>
+        <v>22.19125061822126</v>
       </c>
       <c r="C126">
-        <v>1.988923317573082</v>
+        <v>3.680111092443446</v>
       </c>
       <c r="D126">
-        <v>22.72024002643574</v>
+        <v>16.65373974896417</v>
       </c>
       <c r="E126">
-        <v>14.89431038447825</v>
+        <v>8.250288131119172</v>
       </c>
       <c r="F126">
-        <v>7.107605355256134</v>
+        <v>3.895225699281609</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>15.33946320701967</v>
+        <v>22.18107700194401</v>
       </c>
       <c r="C127">
-        <v>1.974603035745993</v>
+        <v>3.654406311514775</v>
       </c>
       <c r="D127">
-        <v>22.71307359623967</v>
+        <v>16.64732725286959</v>
       </c>
       <c r="E127">
-        <v>14.85961839741107</v>
+        <v>8.245413802012346</v>
       </c>
       <c r="F127">
-        <v>7.094248226667498</v>
+        <v>3.869782790412295</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>15.30673914162683</v>
+        <v>22.17090302589964</v>
       </c>
       <c r="C128">
-        <v>1.960364231261987</v>
+        <v>3.62878669051636</v>
       </c>
       <c r="D128">
-        <v>22.70590732817022</v>
+        <v>16.64091546550531</v>
       </c>
       <c r="E128">
-        <v>14.82495031597717</v>
+        <v>8.240539803222179</v>
       </c>
       <c r="F128">
-        <v>7.08090442845617</v>
+        <v>3.844423068492507</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>15.274026858986</v>
+        <v>22.16072876277176</v>
       </c>
       <c r="C129">
-        <v>1.946206759551271</v>
+        <v>3.603255013038009</v>
       </c>
       <c r="D129">
-        <v>22.69874131076152</v>
+        <v>16.63450442824416</v>
       </c>
       <c r="E129">
-        <v>14.79030628019444</v>
+        <v>8.235666304159587</v>
       </c>
       <c r="F129">
-        <v>7.067574000311718</v>
+        <v>3.819148848573857</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>15.24132802881837</v>
+        <v>22.1505542765319</v>
       </c>
       <c r="C130">
-        <v>1.932130446796367</v>
+        <v>3.577813822305055</v>
       </c>
       <c r="D130">
-        <v>22.69157561306808</v>
+        <v>16.62809417522884</v>
       </c>
       <c r="E130">
-        <v>14.75568644592399</v>
+        <v>8.230793448832364</v>
       </c>
       <c r="F130">
-        <v>7.054256977145976</v>
+        <v>3.793962248691845</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>15.20864413224794</v>
+        <v>22.1403796173513</v>
       </c>
       <c r="C131">
-        <v>1.918135124054114</v>
+        <v>3.552465459601138</v>
       </c>
       <c r="D131">
-        <v>22.68441030052123</v>
+        <v>16.6216847350373</v>
       </c>
       <c r="E131">
-        <v>14.72109092665658</v>
+        <v>8.225921355834455</v>
       </c>
       <c r="F131">
-        <v>7.040953390219781</v>
+        <v>3.768865216134886</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>15.17597648367607</v>
+        <v>22.1302048286456</v>
       </c>
       <c r="C132">
-        <v>1.904220596447444</v>
+        <v>3.527212054120596</v>
       </c>
       <c r="D132">
-        <v>22.67724542241163</v>
+        <v>16.61527613203053</v>
       </c>
       <c r="E132">
-        <v>14.68651984780873</v>
+        <v>8.22105013137025</v>
       </c>
       <c r="F132">
-        <v>7.027663267039946</v>
+        <v>3.743859529819225</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>15.143326250987</v>
+        <v>22.120029946525</v>
       </c>
       <c r="C133">
-        <v>1.890386670937787</v>
+        <v>3.502055580818915</v>
       </c>
       <c r="D133">
-        <v>22.67008102428536</v>
+        <v>16.60886838606555</v>
       </c>
       <c r="E133">
-        <v>14.65197331138195</v>
+        <v>8.216179860507498</v>
       </c>
       <c r="F133">
-        <v>7.01438663269394</v>
+        <v>3.718946824191016</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>15.11069446692368</v>
+        <v>22.10985500165378</v>
       </c>
       <c r="C134">
-        <v>1.876633139352501</v>
+        <v>3.476997830355247</v>
       </c>
       <c r="D134">
-        <v>22.6629171419447</v>
+        <v>16.60246151385152</v>
       </c>
       <c r="E134">
-        <v>14.61745141879971</v>
+        <v>8.211310619461342</v>
       </c>
       <c r="F134">
-        <v>7.001123509535788</v>
+        <v>3.694128597663026</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>15.07808206726824</v>
+        <v>22.09968002080627</v>
       </c>
       <c r="C135">
-        <v>1.862959789155011</v>
+        <v>3.452040461903916</v>
       </c>
       <c r="D135">
-        <v>22.65575380683152</v>
+        <v>16.59605552979547</v>
       </c>
       <c r="E135">
-        <v>14.58295426375872</v>
+        <v>8.206442472400052</v>
       </c>
       <c r="F135">
-        <v>6.987873917890243</v>
+        <v>3.66940622369024</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>15.04548987399042</v>
+        <v>22.08950502594721</v>
       </c>
       <c r="C136">
-        <v>1.849366400822436</v>
+        <v>3.427184987368951</v>
       </c>
       <c r="D136">
-        <v>22.64859104554658</v>
+        <v>16.58965044572981</v>
       </c>
       <c r="E136">
-        <v>14.54848193629826</v>
+        <v>8.201575475521011</v>
       </c>
       <c r="F136">
-        <v>6.974637876441332</v>
+        <v>3.644780965173392</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>15.01291863673076</v>
+        <v>22.07933003713535</v>
       </c>
       <c r="C137">
-        <v>1.835852749755047</v>
+        <v>3.402432802472955</v>
       </c>
       <c r="D137">
-        <v>22.64142888074493</v>
+        <v>16.58324627200676</v>
       </c>
       <c r="E137">
-        <v>14.51403452196492</v>
+        <v>8.196709677531615</v>
       </c>
       <c r="F137">
-        <v>6.961415402420132</v>
+        <v>3.62025397957568</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>14.98036903244865</v>
+        <v>22.06915507018195</v>
       </c>
       <c r="C138">
-        <v>1.822418606587349</v>
+        <v>3.377785187407096</v>
       </c>
       <c r="D138">
-        <v>22.63426733278143</v>
+        <v>16.57684301803317</v>
       </c>
       <c r="E138">
-        <v>14.47961210532864</v>
+        <v>8.191845122062389</v>
       </c>
       <c r="F138">
-        <v>6.948206511705393</v>
+        <v>3.595826329471989</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>14.94784165207577</v>
+        <v>22.05898013930682</v>
       </c>
       <c r="C139">
-        <v>1.809063738166409</v>
+        <v>3.3532433203412</v>
       </c>
       <c r="D139">
-        <v>22.62710641822672</v>
+        <v>16.57044069052763</v>
       </c>
       <c r="E139">
-        <v>14.44521476725431</v>
+        <v>8.18698184512186</v>
       </c>
       <c r="F139">
-        <v>6.935011219578993</v>
+        <v>3.571498991531378</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>14.91533705782535</v>
+        <v>22.04880525606632</v>
       </c>
       <c r="C140">
-        <v>1.795787907778736</v>
+        <v>3.328808287068879</v>
       </c>
       <c r="D140">
-        <v>22.61994615262517</v>
+        <v>16.56403929724992</v>
       </c>
       <c r="E140">
-        <v>14.41084258632006</v>
+        <v>8.182119880602874</v>
       </c>
       <c r="F140">
-        <v>6.921829540123391</v>
+        <v>3.547272860029088</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>14.88285572231257</v>
+        <v>22.03863043051912</v>
       </c>
       <c r="C141">
-        <v>1.782590874567182</v>
+        <v>3.304481082660612</v>
       </c>
       <c r="D141">
-        <v>22.61278654821388</v>
+        <v>16.55763884269667</v>
       </c>
       <c r="E141">
-        <v>14.37649564043772</v>
+        <v>8.177259255088792</v>
       </c>
       <c r="F141">
-        <v>6.908661486871618</v>
+        <v>3.523148756965578</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>14.8503981019726</v>
+        <v>22.02845567127268</v>
       </c>
       <c r="C142">
-        <v>1.769472395696707</v>
+        <v>3.280262628155216</v>
       </c>
       <c r="D142">
-        <v>22.60562761628533</v>
+        <v>16.55123933244058</v>
       </c>
       <c r="E142">
-        <v>14.34217400356019</v>
+        <v>8.172399993756368</v>
       </c>
       <c r="F142">
-        <v>6.895507073200143</v>
+        <v>3.499127435275847</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>14.81796458794187</v>
+        <v>22.01828098568247</v>
       </c>
       <c r="C143">
-        <v>1.756432223981828</v>
+        <v>3.25615376507601</v>
       </c>
       <c r="D143">
-        <v>22.59846936604311</v>
+        <v>16.54484077024087</v>
       </c>
       <c r="E143">
-        <v>14.30787775000098</v>
+        <v>8.167542116886104</v>
       </c>
       <c r="F143">
-        <v>6.882366310970633</v>
+        <v>3.475209582445829</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>14.78555554898197</v>
+        <v>22.00810638028992</v>
       </c>
       <c r="C144">
-        <v>1.743470110690492</v>
+        <v>3.232155271593499</v>
       </c>
       <c r="D144">
-        <v>22.59131180564674</v>
+        <v>16.53844315960381</v>
       </c>
       <c r="E144">
-        <v>14.2736069516417</v>
+        <v>8.162685642837781</v>
       </c>
       <c r="F144">
-        <v>6.869239212839664</v>
+        <v>3.451395833002077</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>14.75317131292205</v>
+        <v>21.9979318605574</v>
       </c>
       <c r="C145">
-        <v>1.730585803764314</v>
+        <v>3.208267859470802</v>
       </c>
       <c r="D145">
-        <v>22.58415494214165</v>
+        <v>16.53204650356977</v>
       </c>
       <c r="E145">
-        <v>14.23936167970565</v>
+        <v>8.157830587399644</v>
       </c>
       <c r="F145">
-        <v>6.856125789872453</v>
+        <v>3.427686764509009</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>14.72081218586621</v>
+        <v>21.98775743137973</v>
       </c>
       <c r="C146">
-        <v>1.717779049255943</v>
+        <v>3.18449218494331</v>
       </c>
       <c r="D146">
-        <v>22.5769987816611</v>
+        <v>16.52565080468061</v>
       </c>
       <c r="E146">
-        <v>14.20514200489863</v>
+        <v>8.152976964561585</v>
       </c>
       <c r="F146">
-        <v>6.843026053595011</v>
+        <v>3.404082904185028</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>14.68847844310769</v>
+        <v>21.97758309683918</v>
       </c>
       <c r="C147">
-        <v>1.705049590982129</v>
+        <v>3.160828849110921</v>
       </c>
       <c r="D147">
-        <v>22.56984332969464</v>
+        <v>16.51925606525547</v>
       </c>
       <c r="E147">
-        <v>14.17094799712048</v>
+        <v>8.148124786462063</v>
       </c>
       <c r="F147">
-        <v>6.829940014904833</v>
+        <v>3.380584743680795</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>14.65617034323907</v>
+        <v>21.96740886050402</v>
       </c>
       <c r="C148">
-        <v>1.692397170886397</v>
+        <v>3.137278404145665</v>
       </c>
       <c r="D148">
-        <v>22.56268859090799</v>
+        <v>16.51286228725465</v>
       </c>
       <c r="E148">
-        <v>14.13677972583393</v>
+        <v>8.143274064292068</v>
       </c>
       <c r="F148">
-        <v>6.816867684377512</v>
+        <v>3.357192713995455</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>14.6238881217925</v>
+        <v>21.9572347254415</v>
       </c>
       <c r="C149">
-        <v>1.679821528986052</v>
+        <v>3.113841356254025</v>
       </c>
       <c r="D149">
-        <v>22.55553456961091</v>
+        <v>16.50646947262065</v>
       </c>
       <c r="E149">
-        <v>14.10263726058132</v>
+        <v>8.138424807271113</v>
       </c>
       <c r="F149">
-        <v>6.803809072489337</v>
+        <v>3.333907226352726</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>14.59163199633716</v>
+        <v>21.94706069430352</v>
       </c>
       <c r="C150">
-        <v>1.667322403868768</v>
+        <v>3.090518167842387</v>
       </c>
       <c r="D150">
-        <v>22.54838126937813</v>
+        <v>16.50007762279169</v>
       </c>
       <c r="E150">
-        <v>14.06852066996632</v>
+        <v>8.133577024276605</v>
       </c>
       <c r="F150">
-        <v>6.790764189482439</v>
+        <v>3.310728643740031</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>14.55940217087405</v>
+        <v>21.93688676941041</v>
       </c>
       <c r="C151">
-        <v>1.654899532134495</v>
+        <v>3.067309263026043</v>
       </c>
       <c r="D151">
-        <v>22.54122869349598</v>
+        <v>16.49368673936746</v>
       </c>
       <c r="E151">
-        <v>14.03443002297206</v>
+        <v>8.128730722425425</v>
       </c>
       <c r="F151">
-        <v>6.777733045487856</v>
+        <v>3.28765729504196</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>14.52719883033356</v>
+        <v>21.92671295277851</v>
       </c>
       <c r="C152">
-        <v>1.642552649230317</v>
+        <v>3.044215026881727</v>
       </c>
       <c r="D152">
-        <v>22.53407684475223</v>
+        <v>16.48729682358672</v>
       </c>
       <c r="E152">
-        <v>14.00036538798285</v>
+        <v>8.12388590849686</v>
       </c>
       <c r="F152">
-        <v>6.764715650429749</v>
+        <v>3.264693483508734</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>14.49502215092809</v>
+        <v>21.91653924613696</v>
       </c>
       <c r="C153">
-        <v>1.63028148883527</v>
+        <v>3.021235811398311</v>
       </c>
       <c r="D153">
-        <v>22.52692572565144</v>
+        <v>16.48090787657908</v>
       </c>
       <c r="E153">
-        <v>13.96632683326165</v>
+        <v>8.119042588134953</v>
       </c>
       <c r="F153">
-        <v>6.751712014223547</v>
+        <v>3.241837473860488</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>14.4628722934651</v>
+        <v>21.90636565100671</v>
       </c>
       <c r="C154">
-        <v>1.618085783340143</v>
+        <v>2.998371934677819</v>
       </c>
       <c r="D154">
-        <v>22.5197753384021</v>
+        <v>16.47451989941733</v>
       </c>
       <c r="E154">
-        <v>13.93231442702089</v>
+        <v>8.114200766489505</v>
       </c>
       <c r="F154">
-        <v>6.738722146619933</v>
+        <v>3.219089510271613</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>14.43074941088251</v>
+        <v>21.89619216884739</v>
       </c>
       <c r="C155">
-        <v>1.605965263746933</v>
+        <v>2.975623685512822</v>
       </c>
       <c r="D155">
-        <v>22.51262568497588</v>
+        <v>16.4681328929783</v>
       </c>
       <c r="E155">
-        <v>13.89832823729166</v>
+        <v>8.109360448069287</v>
       </c>
       <c r="F155">
-        <v>6.725746057242217</v>
+        <v>3.196449807109524</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>14.39865364497209</v>
+        <v>21.88601880062076</v>
       </c>
       <c r="C156">
-        <v>1.593919659732585</v>
+        <v>2.952991323475789</v>
       </c>
       <c r="D156">
-        <v>22.50547676714418</v>
+        <v>16.46174685810828</v>
       </c>
       <c r="E156">
-        <v>13.86436833210585</v>
+        <v>8.104521636949933</v>
       </c>
       <c r="F156">
-        <v>6.712783755715921</v>
+        <v>3.173918556004408</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>14.36658513093257</v>
+        <v>21.87584554755961</v>
       </c>
       <c r="C157">
-        <v>1.581948699762302</v>
+        <v>2.930475081895395</v>
       </c>
       <c r="D157">
-        <v>22.49832858648702</v>
+        <v>16.455361795567</v>
       </c>
       <c r="E157">
-        <v>13.83043477954518</v>
+        <v>8.099684336705835</v>
       </c>
       <c r="F157">
-        <v>6.699835251460419</v>
+        <v>3.151495926899694</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>14.33454399464621</v>
+        <v>21.86567241060441</v>
       </c>
       <c r="C158">
-        <v>1.570052111101635</v>
+        <v>2.908075168861244</v>
       </c>
       <c r="D158">
-        <v>22.49118114444088</v>
+        <v>16.4489777060522</v>
       </c>
       <c r="E158">
-        <v>13.79652764768502</v>
+        <v>8.094848550678286</v>
       </c>
       <c r="F158">
-        <v>6.686900553910164</v>
+        <v>3.129182065881468</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>14.30253035734977</v>
+        <v>21.85549939040878</v>
       </c>
       <c r="C159">
-        <v>1.558229619879475</v>
+        <v>2.885791767714107</v>
       </c>
       <c r="D159">
-        <v>22.48403444227178</v>
+        <v>16.44259459020824</v>
       </c>
       <c r="E159">
-        <v>13.7626470046744</v>
+        <v>8.090014281708971</v>
       </c>
       <c r="F159">
-        <v>6.673979672382632</v>
+        <v>3.106977103399782</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>14.27054433259947</v>
+        <v>21.84532648787781</v>
       </c>
       <c r="C160">
-        <v>1.546480951119347</v>
+        <v>2.863625040985448</v>
       </c>
       <c r="D160">
-        <v>22.47688848114592</v>
+        <v>16.43621244865653</v>
       </c>
       <c r="E160">
-        <v>13.7287929187967</v>
+        <v>8.085181532523489</v>
       </c>
       <c r="F160">
-        <v>6.661072616140049</v>
+        <v>3.084881146945349</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>14.23858602933165</v>
+        <v>21.83515370351679</v>
       </c>
       <c r="C161">
-        <v>1.53480582880913</v>
+        <v>2.841575130911843</v>
       </c>
       <c r="D161">
-        <v>22.46974326208309</v>
+        <v>16.42983128196716</v>
       </c>
       <c r="E161">
-        <v>13.69496545830765</v>
+        <v>8.080350305425853</v>
       </c>
       <c r="F161">
-        <v>6.648179394388756</v>
+        <v>3.062894289363941</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>14.20665555134449</v>
+        <v>21.82498103790006</v>
       </c>
       <c r="C162">
-        <v>1.523203975860663</v>
+        <v>2.819642155570837</v>
       </c>
       <c r="D162">
-        <v>22.46259878604369</v>
+        <v>16.42345109067403</v>
       </c>
       <c r="E162">
-        <v>13.66116469168712</v>
+        <v>8.075520602599378</v>
       </c>
       <c r="F162">
-        <v>6.635300016288058</v>
+        <v>3.04101660657358</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>14.17475299746306</v>
+        <v>21.81480849154105</v>
       </c>
       <c r="C163">
-        <v>1.511675114247514</v>
+        <v>2.797826220665515</v>
       </c>
       <c r="D163">
-        <v>22.45545505389216</v>
+        <v>16.41707187530455</v>
       </c>
       <c r="E163">
-        <v>13.62739068739997</v>
+        <v>8.07069242594922</v>
       </c>
       <c r="F163">
-        <v>6.622434490947118</v>
+        <v>3.019248156582202</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>14.14287846308579</v>
+        <v>21.80463606481415</v>
       </c>
       <c r="C164">
-        <v>1.500218964913812</v>
+        <v>2.776127411192221</v>
       </c>
       <c r="D164">
-        <v>22.44831206638838</v>
+        <v>16.4106936363211</v>
       </c>
       <c r="E164">
-        <v>13.59364351409317</v>
+        <v>8.065865777235972</v>
       </c>
       <c r="F164">
-        <v>6.609582827426414</v>
+        <v>2.99758898562244</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>14.11103203922506</v>
+        <v>21.79446375810276</v>
       </c>
       <c r="C165">
-        <v>1.488835247914688</v>
+        <v>2.754545792161706</v>
       </c>
       <c r="D165">
-        <v>22.44116982431018</v>
+        <v>16.40431637419586</v>
       </c>
       <c r="E165">
-        <v>13.55992324050423</v>
+        <v>8.061040658046107</v>
       </c>
       <c r="F165">
-        <v>6.596745034761955</v>
+        <v>2.976039122906321</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>14.07921381415927</v>
+        <v>21.78429157173072</v>
       </c>
       <c r="C166">
-        <v>1.47752368236131</v>
+        <v>2.733081419107072</v>
       </c>
       <c r="D166">
-        <v>22.43402832831011</v>
+        <v>16.39794008935663</v>
       </c>
       <c r="E166">
-        <v>13.52622993549941</v>
+        <v>8.0562170698445</v>
       </c>
       <c r="F166">
-        <v>6.58392112192745</v>
+        <v>2.954598586497331</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>14.04742387265606</v>
+        <v>21.77411950599045</v>
       </c>
       <c r="C167">
-        <v>1.466283986503109</v>
+        <v>2.711734326556852</v>
       </c>
       <c r="D167">
-        <v>22.4268875789952</v>
+        <v>16.39156478222224</v>
       </c>
       <c r="E167">
-        <v>13.49256366809122</v>
+        <v>8.051395013961313</v>
       </c>
       <c r="F167">
-        <v>6.571111097873216</v>
+        <v>2.933267381043005</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>14.01566229727541</v>
+        <v>21.76394756115261</v>
       </c>
       <c r="C168">
-        <v>1.455115877727262</v>
+        <v>2.690504536013994</v>
       </c>
       <c r="D168">
-        <v>22.41974757700548</v>
+        <v>16.38519045319456</v>
       </c>
       <c r="E168">
-        <v>13.45892450744116</v>
+        <v>8.046574491641367</v>
       </c>
       <c r="F168">
-        <v>6.558314971509254</v>
+        <v>2.912045498749706</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>13.98392916758269</v>
+        <v>21.75377573743618</v>
       </c>
       <c r="C169">
-        <v>1.444019072601344</v>
+        <v>2.669392057000969</v>
       </c>
       <c r="D169">
-        <v>22.41260832282954</v>
+        <v>16.37881710266206</v>
       </c>
       <c r="E169">
-        <v>13.42531252285936</v>
+        <v>8.041755504017623</v>
       </c>
       <c r="F169">
-        <v>6.545532751698523</v>
+        <v>2.890932921628095</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>13.95222456149747</v>
+        <v>21.74360403507517</v>
       </c>
       <c r="C170">
-        <v>1.432993286886375</v>
+        <v>2.64839688177784</v>
       </c>
       <c r="D170">
-        <v>22.4054698169945</v>
+        <v>16.37244473100191</v>
       </c>
       <c r="E170">
-        <v>13.39172778381817</v>
+        <v>8.036938052151575</v>
       </c>
       <c r="F170">
-        <v>6.53276444727909</v>
+        <v>2.869929619325197</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>13.92054855434067</v>
+        <v>21.73343245427047</v>
       </c>
       <c r="C171">
-        <v>1.422038235576673</v>
+        <v>2.627518992914965</v>
       </c>
       <c r="D171">
-        <v>22.39833205999684</v>
+        <v>16.36607333858298</v>
       </c>
       <c r="E171">
-        <v>13.35817035995555</v>
+        <v>8.032122137022425</v>
       </c>
       <c r="F171">
-        <v>6.520010067048226</v>
+        <v>2.849035552651992</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>13.88890122004198</v>
+        <v>21.72326099517618</v>
       </c>
       <c r="C172">
-        <v>1.411153632907689</v>
+        <v>2.606758359815619</v>
       </c>
       <c r="D172">
-        <v>22.39119505225158</v>
+        <v>16.35970292576835</v>
       </c>
       <c r="E172">
-        <v>13.32464032105859</v>
+        <v>8.02730775954187</v>
       </c>
       <c r="F172">
-        <v>6.507269619771162</v>
+        <v>2.828250671772211</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>13.85728263057087</v>
+        <v>21.71308965797435</v>
       </c>
       <c r="C173">
-        <v>1.400339192391387</v>
+        <v>2.586114939241793</v>
       </c>
       <c r="D173">
-        <v>22.38405879419659</v>
+        <v>16.35333349290703</v>
       </c>
       <c r="E173">
-        <v>13.29113773709845</v>
+        <v>8.02249492056387</v>
       </c>
       <c r="F173">
-        <v>6.494543114181687</v>
+        <v>2.807574917251063</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>13.82569285642172</v>
+        <v>21.70291844279711</v>
       </c>
       <c r="C174">
-        <v>1.389594626833469</v>
+        <v>2.565588678151706</v>
       </c>
       <c r="D174">
-        <v>22.37692328623281</v>
+        <v>16.34696504035054</v>
       </c>
       <c r="E174">
-        <v>13.25766267819531</v>
+        <v>8.017683620885794</v>
       </c>
       <c r="F174">
-        <v>6.481830558982038</v>
+        <v>2.787008221432066</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>13.79413196673765</v>
+        <v>21.69274734977119</v>
       </c>
       <c r="C175">
-        <v>1.378919648354236</v>
+        <v>2.545179511798618</v>
       </c>
       <c r="D175">
-        <v>22.36978852873515</v>
+        <v>16.34059756843489</v>
       </c>
       <c r="E175">
-        <v>13.22421521465176</v>
+        <v>8.01287386126061</v>
       </c>
       <c r="F175">
-        <v>6.469131962843385</v>
+        <v>2.766550506788203</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>13.76260002927483</v>
+        <v>21.68257637901651</v>
       </c>
       <c r="C176">
-        <v>1.368313968417566</v>
+        <v>2.524887364961727</v>
       </c>
       <c r="D176">
-        <v>22.36265452207308</v>
+        <v>16.33423107749717</v>
       </c>
       <c r="E176">
-        <v>13.19079541693655</v>
+        <v>8.008065642398821</v>
       </c>
       <c r="F176">
-        <v>6.45644733440641</v>
+        <v>2.746201688584595</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>13.73109711076088</v>
+        <v>21.67240553063375</v>
       </c>
       <c r="C177">
-        <v>1.357777297845264</v>
+        <v>2.504712153516019</v>
       </c>
       <c r="D177">
-        <v>22.35552126659569</v>
+        <v>16.32786556786677</v>
       </c>
       <c r="E177">
-        <v>13.15740335569381</v>
+        <v>8.003258964970389</v>
       </c>
       <c r="F177">
-        <v>6.443776682284241</v>
+        <v>2.725961673424329</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>13.69962327673272</v>
+        <v>21.66223480471688</v>
       </c>
       <c r="C178">
-        <v>1.347309346845414</v>
+        <v>2.484653781826988</v>
       </c>
       <c r="D178">
-        <v>22.34838876263978</v>
+        <v>16.32150103986841</v>
       </c>
       <c r="E178">
-        <v>13.12403910174576</v>
+        <v>7.998453829611871</v>
       </c>
       <c r="F178">
-        <v>6.431120015055448</v>
+        <v>2.705830360294891</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>13.66817859191348</v>
+        <v>21.65206420135167</v>
       </c>
       <c r="C179">
-        <v>1.336909825029364</v>
+        <v>2.464712146234578</v>
       </c>
       <c r="D179">
-        <v>22.34125701053969</v>
+        <v>16.31513749382385</v>
       </c>
       <c r="E179">
-        <v>13.09070272609234</v>
+        <v>7.993650236946241</v>
       </c>
       <c r="F179">
-        <v>6.418477341273765</v>
+        <v>2.685807641073087</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>13.6367631199927</v>
+        <v>21.64189372061845</v>
       </c>
       <c r="C180">
-        <v>1.326578441440689</v>
+        <v>2.444887134004253</v>
       </c>
       <c r="D180">
-        <v>22.33412601060513</v>
+        <v>16.30877493005173</v>
       </c>
       <c r="E180">
-        <v>13.05739429991246</v>
+        <v>7.988848187552738</v>
       </c>
       <c r="F180">
-        <v>6.405848669460259</v>
+        <v>2.665893399935446</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>13.60537692402991</v>
+        <v>21.631723362591</v>
       </c>
       <c r="C181">
-        <v>1.316314904571233</v>
+        <v>2.425178622205309</v>
       </c>
       <c r="D181">
-        <v>22.32699576314715</v>
+        <v>16.30241334886781</v>
       </c>
       <c r="E181">
-        <v>13.0241138945681</v>
+        <v>7.984047681979006</v>
       </c>
       <c r="F181">
-        <v>6.393234008107027</v>
+        <v>2.646087514754449</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>13.57402006618073</v>
+        <v>21.62155312733498</v>
       </c>
       <c r="C182">
-        <v>1.30611892237272</v>
+        <v>2.405586480802387</v>
       </c>
       <c r="D182">
-        <v>22.31986626847221</v>
+        <v>16.29605275058536</v>
       </c>
       <c r="E182">
-        <v>12.99086158159818</v>
+        <v>7.979248720793152</v>
       </c>
       <c r="F182">
-        <v>6.38063336567742</v>
+        <v>2.62638985626572</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>13.54269260808923</v>
+        <v>21.61138301491642</v>
       </c>
       <c r="C183">
-        <v>1.295990202305473</v>
+        <v>2.386110570870747</v>
       </c>
       <c r="D183">
-        <v>22.31273752686258</v>
+        <v>16.28969313551654</v>
       </c>
       <c r="E183">
-        <v>12.95763743272563</v>
+        <v>7.974451304518396</v>
       </c>
       <c r="F183">
-        <v>6.368046750604887</v>
+        <v>2.606800288970188</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>13.51139461066665</v>
+        <v>21.60121302539626</v>
       </c>
       <c r="C184">
-        <v>1.285928451341408</v>
+        <v>2.36675074502407</v>
       </c>
       <c r="D184">
-        <v>22.30560953860951</v>
+        <v>16.2833345039704</v>
       </c>
       <c r="E184">
-        <v>12.92444151986373</v>
+        <v>7.969655433632678</v>
       </c>
       <c r="F184">
-        <v>6.355474171293999</v>
+        <v>2.587318671190882</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>13.48012613433835</v>
+        <v>21.59104315882549</v>
       </c>
       <c r="C185">
-        <v>1.275933375959207</v>
+        <v>2.347506848712873</v>
       </c>
       <c r="D185">
-        <v>22.29848230399313</v>
+        <v>16.27697685625535</v>
       </c>
       <c r="E185">
-        <v>12.89127391510258</v>
+        <v>7.964861108655793</v>
       </c>
       <c r="F185">
-        <v>6.342915636120567</v>
+        <v>2.567944854846052</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>13.44888723893246</v>
+        <v>21.58087341525965</v>
       </c>
       <c r="C186">
-        <v>1.266004682222281</v>
+        <v>2.328378719238234</v>
       </c>
       <c r="D186">
-        <v>22.29135582328318</v>
+        <v>16.27062019267803</v>
       </c>
       <c r="E186">
-        <v>12.85813469070995</v>
+        <v>7.960068330069439</v>
       </c>
       <c r="F186">
-        <v>6.33037115343136</v>
+        <v>2.548678686414318</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>13.41767798383855</v>
+        <v>21.57070379474576</v>
       </c>
       <c r="C187">
-        <v>1.25614207576284</v>
+        <v>2.309366186617768</v>
       </c>
       <c r="D187">
-        <v>22.28423009674992</v>
+        <v>16.26426451354317</v>
       </c>
       <c r="E187">
-        <v>12.82502391915834</v>
+        <v>7.955277098312355</v>
       </c>
       <c r="F187">
-        <v>6.317840731544115</v>
+        <v>2.529520006229304</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>13.3864984281385</v>
+        <v>21.56053429732806</v>
       </c>
       <c r="C188">
-        <v>1.246345261790236</v>
+        <v>2.290469073871041</v>
       </c>
       <c r="D188">
-        <v>22.27710512465711</v>
+        <v>16.25790981915502</v>
       </c>
       <c r="E188">
-        <v>12.79194167309909</v>
+        <v>7.950487413854454</v>
       </c>
       <c r="F188">
-        <v>6.305324378747846</v>
+        <v>2.510468649341416</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>13.35534863040753</v>
+        <v>21.55036492304981</v>
       </c>
       <c r="C189">
-        <v>1.236613945141557</v>
+        <v>2.271687196367325</v>
       </c>
       <c r="D189">
-        <v>22.26998090726442</v>
+        <v>16.25155610981612</v>
       </c>
       <c r="E189">
-        <v>12.75888802535016</v>
+        <v>7.945699277140617</v>
       </c>
       <c r="F189">
-        <v>6.292822103302713</v>
+        <v>2.491524445221051</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>13.32422864871631</v>
+        <v>21.54019567195041</v>
       </c>
       <c r="C190">
-        <v>1.226947830292651</v>
+        <v>2.253020363164646</v>
       </c>
       <c r="D190">
-        <v>22.26285744482898</v>
+        <v>16.24520338582842</v>
       </c>
       <c r="E190">
-        <v>12.72586304894254</v>
+        <v>7.940912688592848</v>
       </c>
       <c r="F190">
-        <v>6.280333913439207</v>
+        <v>2.472687217828183</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>13.29313854122122</v>
+        <v>21.53002654406753</v>
       </c>
       <c r="C191">
-        <v>1.217346621366948</v>
+        <v>2.234468376416232</v>
       </c>
       <c r="D191">
-        <v>22.25573473760385</v>
+        <v>16.23885164749293</v>
       </c>
       <c r="E191">
-        <v>12.69286681708775</v>
+        <v>7.936127648640794</v>
       </c>
       <c r="F191">
-        <v>6.2678598173595</v>
+        <v>2.453956786517628</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>13.2620783656833</v>
+        <v>21.51985753943698</v>
       </c>
       <c r="C192">
-        <v>1.207810022162864</v>
+        <v>2.21603103132396</v>
       </c>
       <c r="D192">
-        <v>22.24861278584024</v>
+        <v>16.23250089511001</v>
       </c>
       <c r="E192">
-        <v>12.65989940316816</v>
+        <v>7.931344157701803</v>
       </c>
       <c r="F192">
-        <v>6.255399823235758</v>
+        <v>2.435332965710383</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>13.23104817904942</v>
+        <v>21.50968865809333</v>
       </c>
       <c r="C193">
-        <v>1.198337736181085</v>
+        <v>2.197708117157632</v>
       </c>
       <c r="D193">
-        <v>22.24149158978784</v>
+        <v>16.22615112897948</v>
       </c>
       <c r="E193">
-        <v>12.6269608807707</v>
+        <v>7.926562216184017</v>
       </c>
       <c r="F193">
-        <v>6.242953939211366</v>
+        <v>2.416815563834789</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>13.20004803873461</v>
+        <v>21.49951990006968</v>
       </c>
       <c r="C194">
-        <v>1.188929466634573</v>
+        <v>2.179499416574244</v>
       </c>
       <c r="D194">
-        <v>22.23437114969092</v>
+        <v>16.21980234940033</v>
       </c>
       <c r="E194">
-        <v>12.59405132366512</v>
+        <v>7.921781824493721</v>
       </c>
       <c r="F194">
-        <v>6.230522173400139</v>
+        <v>2.398404385435191</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>13.16907800178825</v>
+        <v>21.48935126539737</v>
       </c>
       <c r="C195">
-        <v>1.1795849164694</v>
+        <v>2.161404705981022</v>
       </c>
       <c r="D195">
-        <v>22.22725146579523</v>
+        <v>16.21345455667119</v>
       </c>
       <c r="E195">
-        <v>12.56117080580618</v>
+        <v>7.917002983031997</v>
       </c>
       <c r="F195">
-        <v>6.218104533886415</v>
+        <v>2.380099230846777</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>13.13813812457818</v>
+        <v>21.47918275410741</v>
       </c>
       <c r="C196">
-        <v>1.170303788392373</v>
+        <v>2.14342375600817</v>
       </c>
       <c r="D196">
-        <v>22.22013253834378</v>
+        <v>16.20710775109076</v>
       </c>
       <c r="E196">
-        <v>12.52831940133836</v>
+        <v>7.912225692189654</v>
       </c>
       <c r="F196">
-        <v>6.205701028725027</v>
+        <v>2.361899895728788</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>13.10722846371894</v>
+        <v>21.46901436622988</v>
       </c>
       <c r="C197">
-        <v>1.161085784884334</v>
+        <v>2.125556331017195</v>
       </c>
       <c r="D197">
-        <v>22.21301436757577</v>
+        <v>16.20076193295726</v>
       </c>
       <c r="E197">
-        <v>12.49549718459507</v>
+        <v>7.907449952360846</v>
       </c>
       <c r="F197">
-        <v>6.19331166594116</v>
+        <v>2.343806169087033</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>13.07634907561645</v>
+        <v>21.45884610179263</v>
       </c>
       <c r="C198">
-        <v>1.151930608216245</v>
+        <v>2.107802189747463</v>
       </c>
       <c r="D198">
-        <v>22.20589695373143</v>
+        <v>16.19441710256726</v>
       </c>
       <c r="E198">
-        <v>12.46270423009771</v>
+        <v>7.902675763935605</v>
       </c>
       <c r="F198">
-        <v>6.1809364535303</v>
+        <v>2.325817838314693</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.04550001636835</v>
+        <v>21.4486779608242</v>
       </c>
       <c r="C199">
-        <v>1.142837960480908</v>
+        <v>2.090161085239671</v>
       </c>
       <c r="D199">
-        <v>22.19878029704851</v>
+        <v>16.18807326021891</v>
       </c>
       <c r="E199">
-        <v>12.42994061255654</v>
+        <v>7.897903127291118</v>
       </c>
       <c r="F199">
-        <v>6.168575399458144</v>
+        <v>2.30793468580903</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>13.0146813419285</v>
+        <v>21.43850994335152</v>
       </c>
       <c r="C200">
-        <v>1.133807543604737</v>
+        <v>2.072632764726992</v>
       </c>
       <c r="D200">
-        <v>22.19166439776306</v>
+        <v>16.18173040620971</v>
       </c>
       <c r="E200">
-        <v>12.39720640687118</v>
+        <v>7.893132042810993</v>
       </c>
       <c r="F200">
-        <v>6.156228511660108</v>
+        <v>2.290156489263529</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.98389310823659</v>
+        <v>21.42834204940065</v>
       </c>
       <c r="C201">
-        <v>1.124839059358497</v>
+        <v>2.055216970165451</v>
       </c>
       <c r="D201">
-        <v>22.18454925611073</v>
+        <v>16.17538854083592</v>
       </c>
       <c r="E201">
-        <v>12.36450168812988</v>
+        <v>7.888362510874698</v>
       </c>
       <c r="F201">
-        <v>6.143895798041792</v>
+        <v>2.272483021478824</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.95313537105318</v>
+        <v>21.41817427899742</v>
       </c>
       <c r="C202">
-        <v>1.115932209396181</v>
+        <v>2.037913438019307</v>
       </c>
       <c r="D202">
-        <v>22.17743487232582</v>
+        <v>16.16904766439419</v>
       </c>
       <c r="E202">
-        <v>12.33182653160854</v>
+        <v>7.883594531853028</v>
       </c>
       <c r="F202">
-        <v>6.131577266478775</v>
+        <v>2.254914052689633</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.92240818598644</v>
+        <v>21.40800663216682</v>
       </c>
       <c r="C203">
-        <v>1.10708669526252</v>
+        <v>2.020721899366385</v>
       </c>
       <c r="D203">
-        <v>22.17032124664176</v>
+        <v>16.16270777718144</v>
       </c>
       <c r="E203">
-        <v>12.29918101277468</v>
+        <v>7.878828106118335</v>
       </c>
       <c r="F203">
-        <v>6.119272924816224</v>
+        <v>2.23744934867823</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.89171160863069</v>
+        <v>21.39783910893338</v>
       </c>
       <c r="C204">
-        <v>1.098302218407101</v>
+        <v>2.003642080235081</v>
       </c>
       <c r="D204">
-        <v>22.16320837929137</v>
+        <v>16.15636887949407</v>
       </c>
       <c r="E204">
-        <v>12.26656520728443</v>
+        <v>7.874063234040945</v>
       </c>
       <c r="F204">
-        <v>6.106982780868075</v>
+        <v>2.220088670734091</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.86104569447928</v>
+        <v>21.38767170932119</v>
       </c>
       <c r="C205">
-        <v>1.089578480213572</v>
+        <v>1.986673701394324</v>
       </c>
       <c r="D205">
-        <v>22.15609627050639</v>
+        <v>16.15003097162787</v>
       </c>
       <c r="E205">
-        <v>12.23397919097949</v>
+        <v>7.869299915987006</v>
       </c>
       <c r="F205">
-        <v>6.094706842418747</v>
+        <v>2.20283177661049</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.83041049886234</v>
+        <v>21.37750443335398</v>
       </c>
       <c r="C206">
-        <v>1.080915182017858</v>
+        <v>1.969816478616698</v>
       </c>
       <c r="D206">
-        <v>22.14898492051836</v>
+        <v>16.14369405387921</v>
       </c>
       <c r="E206">
-        <v>12.20142303989474</v>
+        <v>7.864538152321208</v>
       </c>
       <c r="F206">
-        <v>6.082445117221694</v>
+        <v>2.185678420505889</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.79980607715281</v>
+        <v>21.36733728105516</v>
       </c>
       <c r="C207">
-        <v>1.072312025119518</v>
+        <v>1.953070122801782</v>
       </c>
       <c r="D207">
-        <v>22.14187432955819</v>
+        <v>16.13735812654417</v>
       </c>
       <c r="E207">
-        <v>12.16889683025318</v>
+        <v>7.859777943406905</v>
       </c>
       <c r="F207">
-        <v>6.070197612999104</v>
+        <v>2.168628352789832</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.76923248464758</v>
+        <v>21.3571702524477</v>
       </c>
       <c r="C208">
-        <v>1.063768710803622</v>
+        <v>1.936434339822184</v>
       </c>
       <c r="D208">
-        <v>22.13476449785579</v>
+        <v>16.13102318991858</v>
       </c>
       <c r="E208">
-        <v>12.13640063846468</v>
+        <v>7.85501928960544</v>
       </c>
       <c r="F208">
-        <v>6.057964337442177</v>
+        <v>2.151681319842527</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12.73868977649798</v>
+        <v>21.34700334755442</v>
       </c>
       <c r="C209">
-        <v>1.055284940366774</v>
+        <v>1.919908830912483</v>
       </c>
       <c r="D209">
-        <v>22.12765542564123</v>
+        <v>16.12468924429837</v>
       </c>
       <c r="E209">
-        <v>12.10393454112979</v>
+        <v>7.850262191276746</v>
       </c>
       <c r="F209">
-        <v>6.045745298211436</v>
+        <v>2.134837064875003</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12.70817800787293</v>
+        <v>21.33683656639792</v>
       </c>
       <c r="C210">
-        <v>1.046860415126649</v>
+        <v>1.903493292561042</v>
       </c>
       <c r="D210">
-        <v>22.12054711314389</v>
+        <v>16.11835628997942</v>
       </c>
       <c r="E210">
-        <v>12.07149861503795</v>
+        <v>7.845506648779643</v>
       </c>
       <c r="F210">
-        <v>6.033540502935985</v>
+        <v>2.118095327475135</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12.67769723392038</v>
+        <v>21.32666990900001</v>
       </c>
       <c r="C211">
-        <v>1.038494836438592</v>
+        <v>1.887187416558058</v>
       </c>
       <c r="D211">
-        <v>22.1134395605925</v>
+        <v>16.11202432725754</v>
       </c>
       <c r="E211">
-        <v>12.03909293716683</v>
+        <v>7.84075266247134</v>
       </c>
       <c r="F211">
-        <v>6.021349959213103</v>
+        <v>2.101455843691467</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.64724750969842</v>
+        <v>21.31650337538301</v>
       </c>
       <c r="C212">
-        <v>1.03018790572718</v>
+        <v>1.87099089024007</v>
       </c>
       <c r="D212">
-        <v>22.10633276821588</v>
+        <v>16.10569335642851</v>
       </c>
       <c r="E212">
-        <v>12.00671758468291</v>
+        <v>7.836000232707805</v>
       </c>
       <c r="F212">
-        <v>6.009173674608991</v>
+        <v>2.084918345995512</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.61682889020859</v>
+        <v>21.30633696556901</v>
       </c>
       <c r="C213">
-        <v>1.021939324494295</v>
+        <v>1.854903396415568</v>
       </c>
       <c r="D213">
-        <v>22.09922673624225</v>
+        <v>16.09936337778819</v>
       </c>
       <c r="E213">
-        <v>11.97437263494187</v>
+        <v>7.831249359844786</v>
       </c>
       <c r="F213">
-        <v>5.997011656658028</v>
+        <v>2.068482563829778</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.58644143048404</v>
+        <v>21.29617067957981</v>
       </c>
       <c r="C214">
-        <v>1.013748794330635</v>
+        <v>1.838924613478744</v>
       </c>
       <c r="D214">
-        <v>22.09212146489958</v>
+        <v>16.09303439163246</v>
       </c>
       <c r="E214">
-        <v>11.9420581654877</v>
+        <v>7.826500044236376</v>
       </c>
       <c r="F214">
-        <v>5.984863912862746</v>
+        <v>2.052148223266831</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.55608518550294</v>
+        <v>21.28600451743601</v>
       </c>
       <c r="C215">
-        <v>1.005616016953165</v>
+        <v>1.8230542155475</v>
       </c>
       <c r="D215">
-        <v>22.08501695441567</v>
+        <v>16.08670639825692</v>
       </c>
       <c r="E215">
-        <v>11.90977425405273</v>
+        <v>7.821752286235061</v>
       </c>
       <c r="F215">
-        <v>5.972730450693682</v>
+        <v>2.035915046855594</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.52576021018277</v>
+        <v>21.27583847915973</v>
       </c>
       <c r="C216">
-        <v>0.9975406942106249</v>
+        <v>1.807291872418006</v>
       </c>
       <c r="D216">
-        <v>22.07791320501802</v>
+        <v>16.08037939795753</v>
       </c>
       <c r="E216">
-        <v>11.87752097855832</v>
+        <v>7.817006086193821</v>
       </c>
       <c r="F216">
-        <v>5.960611277589348</v>
+        <v>2.019782754055091</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.49546655946788</v>
+        <v>21.26567256477258</v>
       </c>
       <c r="C217">
-        <v>0.9895225280929617</v>
+        <v>1.791637249739956</v>
       </c>
       <c r="D217">
-        <v>22.070810216934</v>
+        <v>16.07405339103016</v>
       </c>
       <c r="E217">
-        <v>11.84529841711397</v>
+        <v>7.812261444464162</v>
       </c>
       <c r="F217">
-        <v>5.948506400955996</v>
+        <v>2.003751061339907</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.46520428827309</v>
+        <v>21.25550677429587</v>
       </c>
       <c r="C218">
-        <v>0.9815612207688135</v>
+        <v>1.776090009051415</v>
       </c>
       <c r="D218">
-        <v>22.06370799039078</v>
+        <v>16.06772837777063</v>
       </c>
       <c r="E218">
-        <v>11.81310664801648</v>
+        <v>7.807518361396055</v>
       </c>
       <c r="F218">
-        <v>5.93641582816743</v>
+        <v>1.987819682022236</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.43497345147267</v>
+        <v>21.24534110774963</v>
       </c>
       <c r="C219">
-        <v>0.9736564745930936</v>
+        <v>1.760649807790369</v>
       </c>
       <c r="D219">
-        <v>22.05660652561525</v>
+        <v>16.06140435847473</v>
       </c>
       <c r="E219">
-        <v>11.78094574975193</v>
+        <v>7.802776837339754</v>
       </c>
       <c r="F219">
-        <v>5.924339566564989</v>
+        <v>1.971988325965157</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.40477410395824</v>
+        <v>21.23517556515563</v>
       </c>
       <c r="C220">
-        <v>0.9658079921171612</v>
+        <v>1.745316299468578</v>
       </c>
       <c r="D220">
-        <v>22.04950582283438</v>
+        <v>16.05508133343844</v>
       </c>
       <c r="E220">
-        <v>11.74881580099412</v>
+        <v>7.798036872644431</v>
       </c>
       <c r="F220">
-        <v>5.912277623457354</v>
+        <v>1.956256700447543</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.37460630060698</v>
+        <v>21.22501014653502</v>
       </c>
       <c r="C221">
-        <v>0.9580154761161297</v>
+        <v>1.730089133646647</v>
       </c>
       <c r="D221">
-        <v>22.04240588227506</v>
+        <v>16.04875930295771</v>
       </c>
       <c r="E221">
-        <v>11.71671688060314</v>
+        <v>7.7932984676583</v>
       </c>
       <c r="F221">
-        <v>5.900230006120371</v>
+        <v>1.940624509647824</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.34447009627348</v>
+        <v>21.21484485190868</v>
       </c>
       <c r="C222">
-        <v>0.9502786296084458</v>
+        <v>1.714967956005913</v>
       </c>
       <c r="D222">
-        <v>22.03530670416414</v>
+        <v>16.04243826732841</v>
       </c>
       <c r="E222">
-        <v>11.68464906762809</v>
+        <v>7.788561622729287</v>
       </c>
       <c r="F222">
-        <v>5.888196721796819</v>
+        <v>1.925091454786072</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>12.31436554581454</v>
+        <v>21.20467968129681</v>
       </c>
       <c r="C223">
-        <v>0.9425971558621067</v>
+        <v>1.699952408520496</v>
       </c>
       <c r="D223">
-        <v>22.0282082887276</v>
+        <v>16.03611822684659</v>
       </c>
       <c r="E223">
-        <v>11.65261244130519</v>
+        <v>7.783826338204624</v>
       </c>
       <c r="F223">
-        <v>5.876177777696525</v>
+        <v>1.909657234102866</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>12.28429270409459</v>
+        <v>21.19451463472056</v>
       </c>
       <c r="C224">
-        <v>0.9349707584136259</v>
+        <v>1.685042129448429</v>
       </c>
       <c r="D224">
-        <v>22.02111063619238</v>
+        <v>16.02979918180827</v>
       </c>
       <c r="E224">
-        <v>11.62060708105701</v>
+        <v>7.779092614430927</v>
       </c>
       <c r="F224">
-        <v>5.864173180996025</v>
+        <v>1.894321543148046</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>12.25425162596435</v>
+        <v>21.18434971220065</v>
       </c>
       <c r="C225">
-        <v>0.927399141097777</v>
+        <v>1.670236753362508</v>
       </c>
       <c r="D225">
-        <v>22.01401374678509</v>
+        <v>16.02348113250951</v>
       </c>
       <c r="E225">
-        <v>11.58863306649333</v>
+        <v>7.774360451754391</v>
       </c>
       <c r="F225">
-        <v>5.852182938838385</v>
+        <v>1.879084074631932</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>12.22424236626196</v>
+        <v>21.17418491375775</v>
       </c>
       <c r="C226">
-        <v>0.9198820080506669</v>
+        <v>1.655535911119028</v>
       </c>
       <c r="D226">
-        <v>22.00691762073244</v>
+        <v>16.01716407924644</v>
       </c>
       <c r="E226">
-        <v>11.55669047741111</v>
+        <v>7.769629850520716</v>
       </c>
       <c r="F226">
-        <v>5.840207058333148</v>
+        <v>1.863944518482226</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>12.19426497985031</v>
+        <v>21.16402023941232</v>
       </c>
       <c r="C227">
-        <v>0.9124190637215104</v>
+        <v>1.640939230292646</v>
       </c>
       <c r="D227">
-        <v>21.99982225826024</v>
+        <v>16.01084802231522</v>
       </c>
       <c r="E227">
-        <v>11.52477939379325</v>
+        <v>7.764900811074918</v>
       </c>
       <c r="F227">
-        <v>5.828245546556216</v>
+        <v>1.848902561930903</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>12.16431952158595</v>
+        <v>21.15385568918504</v>
       </c>
       <c r="C228">
-        <v>0.9050100129105634</v>
+        <v>1.626446334945151</v>
       </c>
       <c r="D228">
-        <v>21.992727659595</v>
+        <v>16.00453296201207</v>
       </c>
       <c r="E228">
-        <v>11.49289989580858</v>
+        <v>7.760173333761834</v>
       </c>
       <c r="F228">
-        <v>5.816298410549631</v>
+        <v>1.833957889580263</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.13440604630723</v>
+        <v>21.14369126309646</v>
       </c>
       <c r="C229">
-        <v>0.8976545607698028</v>
+        <v>1.612056845730103</v>
       </c>
       <c r="D229">
-        <v>21.98563382496333</v>
+        <v>15.99821889863325</v>
       </c>
       <c r="E229">
-        <v>11.46105206381262</v>
+        <v>7.755447418925845</v>
       </c>
       <c r="F229">
-        <v>5.804365657321407</v>
+        <v>1.819110183409802</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.10452460888104</v>
+        <v>21.13352696116715</v>
       </c>
       <c r="C230">
-        <v>0.8903524128084965</v>
+        <v>1.597770379693634</v>
       </c>
       <c r="D230">
-        <v>21.97854075459175</v>
+        <v>15.99190583247509</v>
       </c>
       <c r="E230">
-        <v>11.4292359783463</v>
+        <v>7.750723066910566</v>
       </c>
       <c r="F230">
-        <v>5.79244729384548</v>
+        <v>1.804359122734668</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.07467526417236</v>
+        <v>21.12336278341763</v>
       </c>
       <c r="C231">
-        <v>0.8831032749376622</v>
+        <v>1.583586551001205</v>
       </c>
       <c r="D231">
-        <v>21.97144844870634</v>
+        <v>15.98559376383397</v>
       </c>
       <c r="E231">
-        <v>11.39745172013525</v>
+        <v>7.74600027805956</v>
       </c>
       <c r="F231">
-        <v>5.780543327061495</v>
+        <v>1.789704384434221</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.04485806703819</v>
+        <v>21.11319872986846</v>
       </c>
       <c r="C232">
-        <v>0.8759068534677454</v>
+        <v>1.569504970495896</v>
       </c>
       <c r="D232">
-        <v>21.96435690753331</v>
+        <v>15.9792826930063</v>
       </c>
       <c r="E232">
-        <v>11.36569937009126</v>
+        <v>7.741279052715936</v>
       </c>
       <c r="F232">
-        <v>5.768653763874674</v>
+        <v>1.775145642875715</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.01507307235245</v>
+        <v>21.1030348005402</v>
       </c>
       <c r="C233">
-        <v>0.8687628551150833</v>
+        <v>1.555525245890476</v>
       </c>
       <c r="D233">
-        <v>21.95726613129921</v>
+        <v>15.97297262028859</v>
       </c>
       <c r="E233">
-        <v>11.33397900931075</v>
+        <v>7.73655939122221</v>
       </c>
       <c r="F233">
-        <v>5.756778611155677</v>
+        <v>1.760682569960458</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.98532033499476</v>
+        <v>21.09287099545336</v>
       </c>
       <c r="C234">
-        <v>0.8616709870390256</v>
+        <v>1.541646981559359</v>
       </c>
       <c r="D234">
-        <v>21.95017612023045</v>
+        <v>15.96666354597737</v>
       </c>
       <c r="E234">
-        <v>11.30229071907356</v>
+        <v>7.731841293920676</v>
       </c>
       <c r="F234">
-        <v>5.744917875740446</v>
+        <v>1.746314835116945</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.95559990984592</v>
+        <v>21.08270731462845</v>
       </c>
       <c r="C235">
-        <v>0.8546309568489003</v>
+        <v>1.527869779166429</v>
       </c>
       <c r="D235">
-        <v>21.94308687455336</v>
+        <v>15.96035547036926</v>
       </c>
       <c r="E235">
-        <v>11.270634580845</v>
+        <v>7.727124761153266</v>
       </c>
       <c r="F235">
-        <v>5.733071564430069</v>
+        <v>1.732042105495567</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.92591185179374</v>
+        <v>21.07254375808606</v>
       </c>
       <c r="C236">
-        <v>0.847642472608729</v>
+        <v>1.514193237317397</v>
       </c>
       <c r="D236">
-        <v>21.93599839449422</v>
+        <v>15.95404839376089</v>
       </c>
       <c r="E236">
-        <v>11.23901067627404</v>
+        <v>7.722409793261432</v>
       </c>
       <c r="F236">
-        <v>5.721239683990623</v>
+        <v>1.71786404589164</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>11.89625621573842</v>
+        <v>21.06238032584679</v>
       </c>
       <c r="C237">
-        <v>0.8407052428618957</v>
+        <v>1.500616951726272</v>
       </c>
       <c r="D237">
-        <v>21.92891068027953</v>
+        <v>15.947742316449</v>
       </c>
       <c r="E237">
-        <v>11.20741908719226</v>
+        <v>7.717696390586353</v>
       </c>
       <c r="F237">
-        <v>5.709422241153041</v>
+        <v>1.703780318781423</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>11.86663305658439</v>
+        <v>21.05221701793118</v>
       </c>
       <c r="C238">
-        <v>0.8338189766528276</v>
+        <v>1.487140515183258</v>
       </c>
       <c r="D238">
-        <v>21.92182373213574</v>
+        <v>15.94143723873038</v>
       </c>
       <c r="E238">
-        <v>11.17585989561505</v>
+        <v>7.712984553468909</v>
       </c>
       <c r="F238">
-        <v>5.697619242612957</v>
+        <v>1.689790584392622</v>
       </c>
     </row>
   </sheetData>
